--- a/tests/test1/d40/N, 1.0.xlsx
+++ b/tests/test1/d40/N, 1.0.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -532,13 +532,13 @@
         <v>358.2359476540324</v>
       </c>
       <c r="F2" t="n">
-        <v>9.230056203141428</v>
+        <v>9.23005620314137</v>
       </c>
       <c r="G2" t="n">
-        <v>75.02945939596398</v>
+        <v>75.02945939596518</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9057178036149475</v>
+        <v>0.9057178036149057</v>
       </c>
       <c r="I2" t="n">
         <v>22.91574594830793</v>
@@ -547,16 +547,16 @@
         <v>38.28184535070894</v>
       </c>
       <c r="K2" t="n">
-        <v>15.69674076325711</v>
+        <v>15.69674076325699</v>
       </c>
       <c r="L2" t="n">
-        <v>7.156984365927002</v>
+        <v>7.156984365926902</v>
       </c>
       <c r="M2" t="n">
-        <v>10.64530498528466</v>
+        <v>10.64530498528489</v>
       </c>
       <c r="N2" t="n">
-        <v>6.058253924831263</v>
+        <v>6.058253924831274</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.0003109999999999502</v>
+        <v>0.0002424999999988131</v>
       </c>
     </row>
     <row r="3">
@@ -584,13 +584,13 @@
         <v>358.3756546363367</v>
       </c>
       <c r="F3" t="n">
-        <v>10.05534532207431</v>
+        <v>10.05534532207414</v>
       </c>
       <c r="G3" t="n">
-        <v>38.61877288193592</v>
+        <v>38.61877288193536</v>
       </c>
       <c r="H3" t="n">
-        <v>1.860576482366654</v>
+        <v>1.860576482366539</v>
       </c>
       <c r="I3" t="n">
         <v>19.69542397878576</v>
@@ -599,16 +599,16 @@
         <v>43.53167591109425</v>
       </c>
       <c r="K3" t="n">
-        <v>13.94267551199834</v>
+        <v>13.94267551199815</v>
       </c>
       <c r="L3" t="n">
-        <v>9.458039597742022</v>
+        <v>9.458039597741744</v>
       </c>
       <c r="M3" t="n">
-        <v>7.242764689083117</v>
+        <v>7.242764689083465</v>
       </c>
       <c r="N3" t="n">
-        <v>5.754395455722769</v>
+        <v>5.754395455722868</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.0003324000000013427</v>
+        <v>0.0002484000000038122</v>
       </c>
     </row>
     <row r="4">
@@ -636,13 +636,13 @@
         <v>0.4167578474054766</v>
       </c>
       <c r="F4" t="n">
-        <v>19.55396444599408</v>
+        <v>19.55396444599385</v>
       </c>
       <c r="G4" t="n">
-        <v>186.6157731245843</v>
+        <v>186.6157731245844</v>
       </c>
       <c r="H4" t="n">
-        <v>7.972782161740671</v>
+        <v>7.972782161740166</v>
       </c>
       <c r="I4" t="n">
         <v>7.555476939874645</v>
@@ -651,16 +651,16 @@
         <v>38.51157200784191</v>
       </c>
       <c r="K4" t="n">
-        <v>1.621490383445486</v>
+        <v>1.621490383445703</v>
       </c>
       <c r="L4" t="n">
-        <v>7.436431930885646</v>
+        <v>7.436431930886023</v>
       </c>
       <c r="M4" t="n">
-        <v>4.238338994619442</v>
+        <v>4.238338994619293</v>
       </c>
       <c r="N4" t="n">
-        <v>9.051465247482039</v>
+        <v>9.051465247481595</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.0002934000000003323</v>
+        <v>0.0002412999999990006</v>
       </c>
     </row>
     <row r="5">
@@ -688,13 +688,13 @@
         <v>358.2113715265697</v>
       </c>
       <c r="F5" t="n">
-        <v>8.814080859705527</v>
+        <v>8.814080859706657</v>
       </c>
       <c r="G5" t="n">
-        <v>66.6067636026832</v>
+        <v>66.60676360269358</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7531846570925296</v>
+        <v>0.7531846570930031</v>
       </c>
       <c r="I5" t="n">
         <v>22.79928386085001</v>
@@ -703,16 +703,16 @@
         <v>38.17369412214205</v>
       </c>
       <c r="K5" t="n">
-        <v>14.74839673369874</v>
+        <v>14.74839673370065</v>
       </c>
       <c r="L5" t="n">
-        <v>6.775509129917102</v>
+        <v>6.775509129918408</v>
       </c>
       <c r="M5" t="n">
-        <v>11.88238195734512</v>
+        <v>11.88238195734113</v>
       </c>
       <c r="N5" t="n">
-        <v>6.53322313016565</v>
+        <v>6.533223130164755</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.0002933999999967796</v>
+        <v>0.0001900999999975284</v>
       </c>
     </row>
     <row r="6">
@@ -740,13 +740,13 @@
         <v>359.9494382928571</v>
       </c>
       <c r="F6" t="n">
-        <v>22.21852677312627</v>
+        <v>22.21852677312653</v>
       </c>
       <c r="G6" t="n">
-        <v>185.7890161955019</v>
+        <v>185.7890161955017</v>
       </c>
       <c r="H6" t="n">
-        <v>9.013530990896234</v>
+        <v>9.013530990896431</v>
       </c>
       <c r="I6" t="n">
         <v>5.187802718568502</v>
@@ -755,16 +755,16 @@
         <v>26.0718196415876</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3879314603474295</v>
+        <v>0.3879314603475059</v>
       </c>
       <c r="L6" t="n">
-        <v>8.841283230396442</v>
+        <v>8.841283230396463</v>
       </c>
       <c r="M6" t="n">
-        <v>2.741172050903016</v>
+        <v>2.741172050902955</v>
       </c>
       <c r="N6" t="n">
-        <v>2.739115175561477</v>
+        <v>2.739115175561405</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.000407600000002617</v>
+        <v>0.000239499999999282</v>
       </c>
     </row>
     <row r="7">
@@ -792,13 +792,13 @@
         <v>359.5587725131149</v>
       </c>
       <c r="F7" t="n">
-        <v>13.2217179751263</v>
+        <v>13.22171797512606</v>
       </c>
       <c r="G7" t="n">
-        <v>33.78963551960877</v>
+        <v>33.78963551960981</v>
       </c>
       <c r="H7" t="n">
-        <v>1.188056406107478</v>
+        <v>1.188056406107274</v>
       </c>
       <c r="I7" t="n">
         <v>13.05313401373524</v>
@@ -807,16 +807,16 @@
         <v>51.07363174201134</v>
       </c>
       <c r="K7" t="n">
-        <v>8.972461093958026</v>
+        <v>8.972461093957822</v>
       </c>
       <c r="L7" t="n">
-        <v>11.93586886986321</v>
+        <v>11.93586886986274</v>
       </c>
       <c r="M7" t="n">
-        <v>4.151449642247859</v>
+        <v>4.151449642248111</v>
       </c>
       <c r="N7" t="n">
-        <v>4.730716312302849</v>
+        <v>4.730716312302926</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.0002855000000003827</v>
+        <v>0.0001954000000026213</v>
       </c>
     </row>
     <row r="8">
@@ -844,13 +844,13 @@
         <v>0.3117836734875126</v>
       </c>
       <c r="F8" t="n">
-        <v>21.97233247311397</v>
+        <v>21.9723324731142</v>
       </c>
       <c r="G8" t="n">
-        <v>184.7203365005975</v>
+        <v>184.7203365005974</v>
       </c>
       <c r="H8" t="n">
-        <v>9.810892382945772</v>
+        <v>9.810892382945926</v>
       </c>
       <c r="I8" t="n">
         <v>7.610879869883244</v>
@@ -859,16 +859,16 @@
         <v>29.73534467829719</v>
       </c>
       <c r="K8" t="n">
-        <v>2.412825166946084</v>
+        <v>2.412825166946186</v>
       </c>
       <c r="L8" t="n">
-        <v>7.629269109338103</v>
+        <v>7.629269109338149</v>
       </c>
       <c r="M8" t="n">
-        <v>2.946030324524817</v>
+        <v>2.946030324524739</v>
       </c>
       <c r="N8" t="n">
-        <v>4.150736626601232</v>
+        <v>4.15073662660126</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.0002811999999998704</v>
+        <v>0.0001928000000006591</v>
       </c>
     </row>
     <row r="9">
@@ -896,13 +896,13 @@
         <v>358.3094742961997</v>
       </c>
       <c r="F9" t="n">
-        <v>9.441095379889099</v>
+        <v>9.441095379888978</v>
       </c>
       <c r="G9" t="n">
-        <v>358.3378113789655</v>
+        <v>358.3378113789652</v>
       </c>
       <c r="H9" t="n">
-        <v>8.877029497091408</v>
+        <v>8.877029497091289</v>
       </c>
       <c r="I9" t="n">
         <v>5.176513718887975</v>
@@ -911,16 +911,16 @@
         <v>52.00243301911608</v>
       </c>
       <c r="K9" t="n">
-        <v>1.911301748931127</v>
+        <v>1.91130174893105</v>
       </c>
       <c r="L9" t="n">
-        <v>17.47830068981478</v>
+        <v>17.47830068981451</v>
       </c>
       <c r="M9" t="n">
-        <v>3.992078470829278</v>
+        <v>3.992078470829384</v>
       </c>
       <c r="N9" t="n">
-        <v>3.012078692586608</v>
+        <v>3.012078692586667</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.00127329999999759</v>
+        <v>0.0001932999999993967</v>
       </c>
     </row>
     <row r="10">
@@ -948,13 +948,13 @@
         <v>359.9087952833802</v>
       </c>
       <c r="F10" t="n">
-        <v>17.23107074715055</v>
+        <v>17.23107074714986</v>
       </c>
       <c r="G10" t="n">
-        <v>176.2091329746499</v>
+        <v>176.2091329746509</v>
       </c>
       <c r="H10" t="n">
-        <v>7.014412138314468</v>
+        <v>7.014412138314175</v>
       </c>
       <c r="I10" t="n">
         <v>20.58725291436772</v>
@@ -963,16 +963,16 @@
         <v>22.65229206771021</v>
       </c>
       <c r="K10" t="n">
-        <v>15.29211564044178</v>
+        <v>15.29211564044122</v>
       </c>
       <c r="L10" t="n">
-        <v>6.443965595598821</v>
+        <v>6.443965595598443</v>
       </c>
       <c r="M10" t="n">
-        <v>4.05600447641477</v>
+        <v>4.056004476415267</v>
       </c>
       <c r="N10" t="n">
-        <v>4.291874523991084</v>
+        <v>4.291874523991329</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.0003567000000010978</v>
+        <v>0.0001934000000005653</v>
       </c>
     </row>
     <row r="11">
@@ -1000,13 +1000,13 @@
         <v>359.9988914452878</v>
       </c>
       <c r="F11" t="n">
-        <v>17.91236585303062</v>
+        <v>17.91236585303024</v>
       </c>
       <c r="G11" t="n">
-        <v>205.4361778990515</v>
+        <v>205.4361778990549</v>
       </c>
       <c r="H11" t="n">
-        <v>3.51499063180256</v>
+        <v>3.51499063180211</v>
       </c>
       <c r="I11" t="n">
         <v>1.809925286532582</v>
@@ -1018,13 +1018,13 @@
         <v>356.803357676143</v>
       </c>
       <c r="L11" t="n">
-        <v>11.50478948495531</v>
+        <v>11.50478948495553</v>
       </c>
       <c r="M11" t="n">
-        <v>3.769529279780748</v>
+        <v>3.769529279780724</v>
       </c>
       <c r="N11" t="n">
-        <v>7.957560316850774</v>
+        <v>7.957560316850806</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.0004314000000000817</v>
+        <v>0.0002331999999967138</v>
       </c>
     </row>
     <row r="12">
@@ -1052,13 +1052,13 @@
         <v>358.6684134958705</v>
       </c>
       <c r="F12" t="n">
-        <v>13.99214702923178</v>
+        <v>13.99214702923172</v>
       </c>
       <c r="G12" t="n">
-        <v>357.9944239404177</v>
+        <v>357.9944239404166</v>
       </c>
       <c r="H12" t="n">
-        <v>2.583146556327451</v>
+        <v>2.58314655632718</v>
       </c>
       <c r="I12" t="n">
         <v>6.190703086112159</v>
@@ -1067,16 +1067,16 @@
         <v>34.65047640795692</v>
       </c>
       <c r="K12" t="n">
-        <v>2.915020701602755</v>
+        <v>2.915020701602641</v>
       </c>
       <c r="L12" t="n">
-        <v>14.48863042717059</v>
+        <v>14.48863042717021</v>
       </c>
       <c r="M12" t="n">
-        <v>3.274548313427898</v>
+        <v>3.274548313428007</v>
       </c>
       <c r="N12" t="n">
-        <v>5.822142234521133</v>
+        <v>5.822142234521418</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.0005571000000017534</v>
+        <v>0.0002005999999994401</v>
       </c>
     </row>
     <row r="13">
@@ -1104,13 +1104,13 @@
         <v>358.2505452586948</v>
       </c>
       <c r="F13" t="n">
-        <v>9.985049788885096</v>
+        <v>9.98504978888519</v>
       </c>
       <c r="G13" t="n">
-        <v>357.6486280766114</v>
+        <v>357.6486280766115</v>
       </c>
       <c r="H13" t="n">
-        <v>8.481900851307556</v>
+        <v>8.481900851307561</v>
       </c>
       <c r="I13" t="n">
         <v>4.573663047849449</v>
@@ -1119,16 +1119,16 @@
         <v>40.78812565334459</v>
       </c>
       <c r="K13" t="n">
-        <v>1.463726930066755</v>
+        <v>1.46372693006678</v>
       </c>
       <c r="L13" t="n">
-        <v>17.53946729812114</v>
+        <v>17.53946729812124</v>
       </c>
       <c r="M13" t="n">
-        <v>3.616412202434087</v>
+        <v>3.616412202434041</v>
       </c>
       <c r="N13" t="n">
-        <v>6.654879762069215</v>
+        <v>6.654879762069204</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.0005313999999998487</v>
+        <v>0.0001997999999971967</v>
       </c>
     </row>
     <row r="14">
@@ -1156,13 +1156,13 @@
         <v>359.52701416851</v>
       </c>
       <c r="F14" t="n">
-        <v>12.79006877566205</v>
+        <v>12.79006877566208</v>
       </c>
       <c r="G14" t="n">
-        <v>348.3953823540904</v>
+        <v>348.3953823540861</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9811194417635275</v>
+        <v>0.9811194417633056</v>
       </c>
       <c r="I14" t="n">
         <v>8.875985220654171</v>
@@ -1171,16 +1171,16 @@
         <v>50.60676945916118</v>
       </c>
       <c r="K14" t="n">
-        <v>4.181237036219381</v>
+        <v>4.181237036219292</v>
       </c>
       <c r="L14" t="n">
-        <v>11.35677490500271</v>
+        <v>11.35677490500246</v>
       </c>
       <c r="M14" t="n">
-        <v>5.011724826171058</v>
+        <v>5.011724826171175</v>
       </c>
       <c r="N14" t="n">
-        <v>5.743727497512676</v>
+        <v>5.743727497512863</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.0005179999999995744</v>
+        <v>0.0001873000000003344</v>
       </c>
     </row>
     <row r="15">
@@ -1208,13 +1208,13 @@
         <v>0.7123906620505903</v>
       </c>
       <c r="F15" t="n">
-        <v>21.16204570150372</v>
+        <v>21.16204570150281</v>
       </c>
       <c r="G15" t="n">
-        <v>184.0506569294982</v>
+        <v>184.0506569294987</v>
       </c>
       <c r="H15" t="n">
-        <v>9.347505465781094</v>
+        <v>9.347505465780344</v>
       </c>
       <c r="I15" t="n">
         <v>10.07090146044474</v>
@@ -1223,16 +1223,16 @@
         <v>32.50749114378547</v>
       </c>
       <c r="K15" t="n">
-        <v>4.982457371739762</v>
+        <v>4.982457371739406</v>
       </c>
       <c r="L15" t="n">
-        <v>7.382958880069384</v>
+        <v>7.382958880069375</v>
       </c>
       <c r="M15" t="n">
-        <v>3.016368282497041</v>
+        <v>3.016368282497319</v>
       </c>
       <c r="N15" t="n">
-        <v>5.156179957436518</v>
+        <v>5.156179957436296</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.0003166000000014435</v>
+        <v>0.0001993999999996277</v>
       </c>
     </row>
     <row r="16">
@@ -1260,13 +1260,13 @@
         <v>358.448660888747</v>
       </c>
       <c r="F16" t="n">
-        <v>8.910191555760401</v>
+        <v>8.910191555760504</v>
       </c>
       <c r="G16" t="n">
-        <v>53.91034544887453</v>
+        <v>53.91034544887272</v>
       </c>
       <c r="H16" t="n">
-        <v>1.14304155458057</v>
+        <v>1.143041554580695</v>
       </c>
       <c r="I16" t="n">
         <v>23.38916312472101</v>
@@ -1275,16 +1275,16 @@
         <v>40.02752228674725</v>
       </c>
       <c r="K16" t="n">
-        <v>16.01629277546989</v>
+        <v>16.0162927754701</v>
       </c>
       <c r="L16" t="n">
-        <v>7.385203596535201</v>
+        <v>7.385203596535441</v>
       </c>
       <c r="M16" t="n">
-        <v>10.64701264459879</v>
+        <v>10.64701264459831</v>
       </c>
       <c r="N16" t="n">
-        <v>6.434623256740259</v>
+        <v>6.434623256740219</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.0004788999999973953</v>
+        <v>0.0002471000000028312</v>
       </c>
     </row>
     <row r="17">
@@ -1312,13 +1312,13 @@
         <v>0.3123284815435487</v>
       </c>
       <c r="F17" t="n">
-        <v>20.92425896580322</v>
+        <v>20.92425896580359</v>
       </c>
       <c r="G17" t="n">
-        <v>185.7061713243443</v>
+        <v>185.7061713243441</v>
       </c>
       <c r="H17" t="n">
-        <v>8.792872862132576</v>
+        <v>8.792872862133189</v>
       </c>
       <c r="I17" t="n">
         <v>7.139827121650356</v>
@@ -1327,16 +1327,16 @@
         <v>32.14036686491941</v>
       </c>
       <c r="K17" t="n">
-        <v>1.726894550997693</v>
+        <v>1.72689455099754</v>
       </c>
       <c r="L17" t="n">
-        <v>7.81197000595142</v>
+        <v>7.811970005951053</v>
       </c>
       <c r="M17" t="n">
-        <v>3.412912041811741</v>
+        <v>3.412912041811814</v>
       </c>
       <c r="N17" t="n">
-        <v>5.208857272694151</v>
+        <v>5.208857272694504</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.0003057999999995786</v>
+        <v>0.0001902999999998656</v>
       </c>
     </row>
     <row r="18">
@@ -1364,13 +1364,13 @@
         <v>359.872051278866</v>
       </c>
       <c r="F18" t="n">
-        <v>17.08542474060476</v>
+        <v>17.08542474060465</v>
       </c>
       <c r="G18" t="n">
-        <v>135.7361221546754</v>
+        <v>135.7361221546662</v>
       </c>
       <c r="H18" t="n">
-        <v>0.754401016138965</v>
+        <v>0.7544010161388492</v>
       </c>
       <c r="I18" t="n">
         <v>10.31962125775608</v>
@@ -1379,16 +1379,16 @@
         <v>46.64286093130009</v>
       </c>
       <c r="K18" t="n">
-        <v>7.274217448594988</v>
+        <v>7.274217448594975</v>
       </c>
       <c r="L18" t="n">
-        <v>13.93285630541336</v>
+        <v>13.93285630541344</v>
       </c>
       <c r="M18" t="n">
-        <v>2.242070904455191</v>
+        <v>2.242070904455193</v>
       </c>
       <c r="N18" t="n">
-        <v>6.615477121695164</v>
+        <v>6.61547712169497</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.0003288000000019053</v>
+        <v>0.000190199999998697</v>
       </c>
     </row>
     <row r="19">
@@ -1416,13 +1416,13 @@
         <v>359.7237341099787</v>
       </c>
       <c r="F19" t="n">
-        <v>14.38469793163364</v>
+        <v>14.3846979316337</v>
       </c>
       <c r="G19" t="n">
-        <v>124.668997425379</v>
+        <v>124.6689974253661</v>
       </c>
       <c r="H19" t="n">
-        <v>0.6641498790450345</v>
+        <v>0.6641498790449865</v>
       </c>
       <c r="I19" t="n">
         <v>12.95212497878583</v>
@@ -1431,16 +1431,16 @@
         <v>45.29448328127268</v>
       </c>
       <c r="K19" t="n">
-        <v>8.824458683836347</v>
+        <v>8.824458683836424</v>
       </c>
       <c r="L19" t="n">
-        <v>11.45035658954304</v>
+        <v>11.4503565895433</v>
       </c>
       <c r="M19" t="n">
-        <v>3.713728800906869</v>
+        <v>3.713728800906763</v>
       </c>
       <c r="N19" t="n">
-        <v>6.390728480186594</v>
+        <v>6.390728480186254</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.0003150999999981252</v>
+        <v>0.0001876000000038403</v>
       </c>
     </row>
     <row r="20">
@@ -1468,13 +1468,13 @@
         <v>359.9205715561937</v>
       </c>
       <c r="F20" t="n">
-        <v>16.00423171972248</v>
+        <v>16.00423171972172</v>
       </c>
       <c r="G20" t="n">
-        <v>164.4214862179784</v>
+        <v>164.4214862179798</v>
       </c>
       <c r="H20" t="n">
-        <v>3.736548906664138</v>
+        <v>3.736548906663847</v>
       </c>
       <c r="I20" t="n">
         <v>18.50855438297455</v>
@@ -1483,16 +1483,16 @@
         <v>34.20258136458548</v>
       </c>
       <c r="K20" t="n">
-        <v>14.54213704057542</v>
+        <v>14.54213704057496</v>
       </c>
       <c r="L20" t="n">
-        <v>9.368865215558179</v>
+        <v>9.36886521555768</v>
       </c>
       <c r="M20" t="n">
-        <v>3.452702946170867</v>
+        <v>3.452702946171267</v>
       </c>
       <c r="N20" t="n">
-        <v>4.855148380925224</v>
+        <v>4.855148380925476</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.0004036000000020579</v>
+        <v>0.0001875000000026716</v>
       </c>
     </row>
     <row r="21">
@@ -1520,13 +1520,13 @@
         <v>359.7789967373178</v>
       </c>
       <c r="F21" t="n">
-        <v>15.43613417646691</v>
+        <v>15.43613417646692</v>
       </c>
       <c r="G21" t="n">
-        <v>292.8750141502298</v>
+        <v>292.8750141502358</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5268818453678329</v>
+        <v>0.5268818453678469</v>
       </c>
       <c r="I21" t="n">
         <v>6.192815573298068</v>
@@ -1535,16 +1535,16 @@
         <v>51.56829656334563</v>
       </c>
       <c r="K21" t="n">
-        <v>2.31583755502212</v>
+        <v>2.315837555022145</v>
       </c>
       <c r="L21" t="n">
-        <v>13.07610940250311</v>
+        <v>13.07610940250319</v>
       </c>
       <c r="M21" t="n">
-        <v>3.299912841150102</v>
+        <v>3.299912841150079</v>
       </c>
       <c r="N21" t="n">
-        <v>6.721776472778039</v>
+        <v>6.721776472777885</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.0005029999999983659</v>
+        <v>0.00023209999999807</v>
       </c>
     </row>
     <row r="22">
@@ -1572,13 +1572,13 @@
         <v>359.1161068873827</v>
       </c>
       <c r="F22" t="n">
-        <v>12.63073059330918</v>
+        <v>12.6307305933067</v>
       </c>
       <c r="G22" t="n">
-        <v>110.5019700476684</v>
+        <v>110.5019700476792</v>
       </c>
       <c r="H22" t="n">
-        <v>2.496770936183477</v>
+        <v>2.496770936182384</v>
       </c>
       <c r="I22" t="n">
         <v>27.44393404367798</v>
@@ -1587,16 +1587,16 @@
         <v>37.03369549700079</v>
       </c>
       <c r="K22" t="n">
-        <v>22.87628338959606</v>
+        <v>22.87628338959437</v>
       </c>
       <c r="L22" t="n">
-        <v>9.728700911458205</v>
+        <v>9.728700911455315</v>
       </c>
       <c r="M22" t="n">
-        <v>4.510801288748999</v>
+        <v>4.510801288751268</v>
       </c>
       <c r="N22" t="n">
-        <v>4.533494339286479</v>
+        <v>4.533494339287498</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.0005077999999976157</v>
+        <v>0.0002033999999966341</v>
       </c>
     </row>
     <row r="23">
@@ -1624,13 +1624,13 @@
         <v>0.05196424950553487</v>
       </c>
       <c r="F23" t="n">
-        <v>19.23356448435252</v>
+        <v>19.23356448435263</v>
       </c>
       <c r="G23" t="n">
-        <v>192.1190770614255</v>
+        <v>192.1190770614253</v>
       </c>
       <c r="H23" t="n">
-        <v>6.6322197834652</v>
+        <v>6.632219783465309</v>
       </c>
       <c r="I23" t="n">
         <v>2.990958436833284</v>
@@ -1642,13 +1642,13 @@
         <v>356.8712859939743</v>
       </c>
       <c r="L23" t="n">
-        <v>8.849092078846548</v>
+        <v>8.849092078846521</v>
       </c>
       <c r="M23" t="n">
-        <v>4.835459387150547</v>
+        <v>4.835459387150533</v>
       </c>
       <c r="N23" t="n">
-        <v>7.348931735989932</v>
+        <v>7.34893173598998</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.0003180000000000405</v>
+        <v>0.000201300000000515</v>
       </c>
     </row>
     <row r="24">
@@ -1676,13 +1676,13 @@
         <v>0.09194991986519468</v>
       </c>
       <c r="F24" t="n">
-        <v>16.16673985981142</v>
+        <v>16.16673985981091</v>
       </c>
       <c r="G24" t="n">
-        <v>186.6466969709022</v>
+        <v>186.6466969709033</v>
       </c>
       <c r="H24" t="n">
-        <v>3.982530234427958</v>
+        <v>3.982530234427545</v>
       </c>
       <c r="I24" t="n">
         <v>9.419044849063178</v>
@@ -1691,16 +1691,16 @@
         <v>46.36511176493712</v>
       </c>
       <c r="K24" t="n">
-        <v>4.179005272617826</v>
+        <v>4.179005272617649</v>
       </c>
       <c r="L24" t="n">
-        <v>8.826909907902973</v>
+        <v>8.826909907902966</v>
       </c>
       <c r="M24" t="n">
-        <v>4.626683478217577</v>
+        <v>4.626683478217768</v>
       </c>
       <c r="N24" t="n">
-        <v>7.753518897876535</v>
+        <v>7.753518897876721</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.0003284999999983995</v>
+        <v>0.0001938000000052398</v>
       </c>
     </row>
     <row r="25">
@@ -1728,13 +1728,13 @@
         <v>359.3330119436465</v>
       </c>
       <c r="F25" t="n">
-        <v>13.06464364899828</v>
+        <v>13.06464364899622</v>
       </c>
       <c r="G25" t="n">
-        <v>94.65490810905484</v>
+        <v>94.65490810905816</v>
       </c>
       <c r="H25" t="n">
-        <v>2.759249551012242</v>
+        <v>2.759249551011258</v>
       </c>
       <c r="I25" t="n">
         <v>26.76285261071862</v>
@@ -1743,16 +1743,16 @@
         <v>40.82017006479759</v>
       </c>
       <c r="K25" t="n">
-        <v>22.99023200564239</v>
+        <v>22.99023200564119</v>
       </c>
       <c r="L25" t="n">
-        <v>11.05692178648477</v>
+        <v>11.05692178648233</v>
       </c>
       <c r="M25" t="n">
-        <v>3.756754603888623</v>
+        <v>3.756754603890071</v>
       </c>
       <c r="N25" t="n">
-        <v>4.216653605113143</v>
+        <v>4.216653605113803</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.0003074999999981287</v>
+        <v>0.0003674000000017941</v>
       </c>
     </row>
     <row r="26">
@@ -1780,13 +1780,13 @@
         <v>358.6707878273508</v>
       </c>
       <c r="F26" t="n">
-        <v>15.34617773279047</v>
+        <v>15.34617773279045</v>
       </c>
       <c r="G26" t="n">
-        <v>199.8083288972278</v>
+        <v>199.8083288972216</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1509567381971269</v>
+        <v>0.1509567381972162</v>
       </c>
       <c r="I26" t="n">
         <v>6.902497117049264</v>
@@ -1795,16 +1795,16 @@
         <v>23.99227987179233</v>
       </c>
       <c r="K26" t="n">
-        <v>3.432567604714498</v>
+        <v>3.43256760471446</v>
       </c>
       <c r="L26" t="n">
-        <v>12.5778211210078</v>
+        <v>12.57782112100767</v>
       </c>
       <c r="M26" t="n">
-        <v>3.163946141793392</v>
+        <v>3.163946141793432</v>
       </c>
       <c r="N26" t="n">
-        <v>4.802416983991352</v>
+        <v>4.802416983991194</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.0003050000000008879</v>
+        <v>0.0002230999999994765</v>
       </c>
     </row>
     <row r="27">
@@ -1832,13 +1832,13 @@
         <v>359.7717269103339</v>
       </c>
       <c r="F27" t="n">
-        <v>17.39792536494219</v>
+        <v>17.39792536494171</v>
       </c>
       <c r="G27" t="n">
-        <v>180.8671309168288</v>
+        <v>180.8671309168301</v>
       </c>
       <c r="H27" t="n">
-        <v>5.980898595153515</v>
+        <v>5.98089859515367</v>
       </c>
       <c r="I27" t="n">
         <v>12.65928260151178</v>
@@ -1847,16 +1847,16 @@
         <v>27.0400161198854</v>
       </c>
       <c r="K27" t="n">
-        <v>7.435442554857548</v>
+        <v>7.435442554857</v>
       </c>
       <c r="L27" t="n">
-        <v>7.669660285186325</v>
+        <v>7.669660285185648</v>
       </c>
       <c r="M27" t="n">
-        <v>4.194357794402695</v>
+        <v>4.194357794403206</v>
       </c>
       <c r="N27" t="n">
-        <v>4.108888617572611</v>
+        <v>4.108888617572781</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.0002884999999999138</v>
+        <v>0.0001943999999980406</v>
       </c>
     </row>
     <row r="28">
@@ -1884,13 +1884,13 @@
         <v>359.80400678834</v>
       </c>
       <c r="F28" t="n">
-        <v>15.21533576375373</v>
+        <v>15.21533576375341</v>
       </c>
       <c r="G28" t="n">
-        <v>141.8747674370886</v>
+        <v>141.8747674371018</v>
       </c>
       <c r="H28" t="n">
-        <v>1.110051832864975</v>
+        <v>1.110051832865093</v>
       </c>
       <c r="I28" t="n">
         <v>13.26276120110444</v>
@@ -1899,16 +1899,16 @@
         <v>44.8670960835456</v>
       </c>
       <c r="K28" t="n">
-        <v>9.537747641262241</v>
+        <v>9.537747641262012</v>
       </c>
       <c r="L28" t="n">
-        <v>11.71291161112407</v>
+        <v>11.71291161112343</v>
       </c>
       <c r="M28" t="n">
-        <v>3.333180527200214</v>
+        <v>3.333180527200475</v>
       </c>
       <c r="N28" t="n">
-        <v>6.523409150787041</v>
+        <v>6.523409150787419</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.0003229999999980748</v>
+        <v>0.000187799999999072</v>
       </c>
     </row>
     <row r="29">
@@ -1936,13 +1936,13 @@
         <v>358.7143945847677</v>
       </c>
       <c r="F29" t="n">
-        <v>10.44968916486271</v>
+        <v>10.44968916486317</v>
       </c>
       <c r="G29" t="n">
-        <v>54.64064545857244</v>
+        <v>54.6406454585718</v>
       </c>
       <c r="H29" t="n">
-        <v>1.698294949860158</v>
+        <v>1.698294949860474</v>
       </c>
       <c r="I29" t="n">
         <v>21.4548724568795</v>
@@ -1951,16 +1951,16 @@
         <v>43.97582692503995</v>
       </c>
       <c r="K29" t="n">
-        <v>16.08480298795022</v>
+        <v>16.08480298795071</v>
       </c>
       <c r="L29" t="n">
-        <v>9.377156466231913</v>
+        <v>9.377156466232664</v>
       </c>
       <c r="M29" t="n">
-        <v>6.767218142502448</v>
+        <v>6.767218142501579</v>
       </c>
       <c r="N29" t="n">
-        <v>5.371176455542307</v>
+        <v>5.371176455542112</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.0003160000000015373</v>
+        <v>0.000197999999997478</v>
       </c>
     </row>
     <row r="30">
@@ -1988,13 +1988,13 @@
         <v>359.55366762213</v>
       </c>
       <c r="F30" t="n">
-        <v>16.14336582906684</v>
+        <v>16.14336582906658</v>
       </c>
       <c r="G30" t="n">
-        <v>159.8586356003398</v>
+        <v>159.8586356003387</v>
       </c>
       <c r="H30" t="n">
-        <v>3.511140981624699</v>
+        <v>3.511140981624468</v>
       </c>
       <c r="I30" t="n">
         <v>18.54236195781179</v>
@@ -2003,16 +2003,16 @@
         <v>31.31086349853181</v>
       </c>
       <c r="K30" t="n">
-        <v>14.61407833982075</v>
+        <v>14.61407833982064</v>
       </c>
       <c r="L30" t="n">
-        <v>9.890804310362403</v>
+        <v>9.89080431036243</v>
       </c>
       <c r="M30" t="n">
-        <v>3.289107002143283</v>
+        <v>3.289107002143358</v>
       </c>
       <c r="N30" t="n">
-        <v>4.436466139171036</v>
+        <v>4.436466139171094</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.0002892000000009887</v>
+        <v>0.0004357999999982098</v>
       </c>
     </row>
     <row r="31">
@@ -2040,13 +2040,13 @@
         <v>0.417482126304551</v>
       </c>
       <c r="F31" t="n">
-        <v>20.33412619677779</v>
+        <v>20.33412619677798</v>
       </c>
       <c r="G31" t="n">
-        <v>185.6817691559759</v>
+        <v>185.6817691559758</v>
       </c>
       <c r="H31" t="n">
-        <v>9.03860484931379</v>
+        <v>9.03860484931408</v>
       </c>
       <c r="I31" t="n">
         <v>8.182083613794248</v>
@@ -2055,16 +2055,16 @@
         <v>30.68820409084247</v>
       </c>
       <c r="K31" t="n">
-        <v>2.024778117138215</v>
+        <v>2.024778117138138</v>
       </c>
       <c r="L31" t="n">
-        <v>6.928510665706898</v>
+        <v>6.928510665706736</v>
       </c>
       <c r="M31" t="n">
-        <v>4.032393175907135</v>
+        <v>4.032393175907169</v>
       </c>
       <c r="N31" t="n">
-        <v>4.605156801175732</v>
+        <v>4.605156801175872</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.000291899999997014</v>
+        <v>0.000236199999996245</v>
       </c>
     </row>
     <row r="32">
@@ -2092,13 +2092,13 @@
         <v>1.2640526647764</v>
       </c>
       <c r="F32" t="n">
-        <v>17.88750930309343</v>
+        <v>17.88750930309235</v>
       </c>
       <c r="G32" t="n">
-        <v>183.0119050198561</v>
+        <v>183.0119050198573</v>
       </c>
       <c r="H32" t="n">
-        <v>7.515461864515505</v>
+        <v>7.515461864514972</v>
       </c>
       <c r="I32" t="n">
         <v>15.61526795852661</v>
@@ -2107,16 +2107,16 @@
         <v>34.69011036954826</v>
       </c>
       <c r="K32" t="n">
-        <v>9.886870005880793</v>
+        <v>9.88687000587994</v>
       </c>
       <c r="L32" t="n">
-        <v>6.355078664203358</v>
+        <v>6.355078664202908</v>
       </c>
       <c r="M32" t="n">
-        <v>3.766580667900587</v>
+        <v>3.766580667901297</v>
       </c>
       <c r="N32" t="n">
-        <v>4.487769134202895</v>
+        <v>4.487769134203335</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.0003822000000006653</v>
+        <v>0.0001888999999977159</v>
       </c>
     </row>
     <row r="33">
@@ -2144,13 +2144,13 @@
         <v>0.4147572142515962</v>
       </c>
       <c r="F33" t="n">
-        <v>14.0839757567353</v>
+        <v>14.08397575673483</v>
       </c>
       <c r="G33" t="n">
-        <v>90.47306760566103</v>
+        <v>90.47306760567584</v>
       </c>
       <c r="H33" t="n">
-        <v>1.159589066343847</v>
+        <v>1.159589066343634</v>
       </c>
       <c r="I33" t="n">
         <v>17.04592559072634</v>
@@ -2159,16 +2159,16 @@
         <v>50.4312401368904</v>
       </c>
       <c r="K33" t="n">
-        <v>13.09063934000794</v>
+        <v>13.09063934000761</v>
       </c>
       <c r="L33" t="n">
-        <v>11.76139897571541</v>
+        <v>11.76139897571455</v>
       </c>
       <c r="M33" t="n">
-        <v>3.350927074800636</v>
+        <v>3.350927074801012</v>
       </c>
       <c r="N33" t="n">
-        <v>5.541411658023383</v>
+        <v>5.541411658023904</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.0002971999999985542</v>
+        <v>0.0001893999999964535</v>
       </c>
     </row>
     <row r="34">
@@ -2196,13 +2196,13 @@
         <v>0.3488944509894297</v>
       </c>
       <c r="F34" t="n">
-        <v>20.29093186941209</v>
+        <v>20.29093186941164</v>
       </c>
       <c r="G34" t="n">
-        <v>184.1967215892079</v>
+        <v>184.1967215892082</v>
       </c>
       <c r="H34" t="n">
-        <v>8.917701334224045</v>
+        <v>8.917701334223693</v>
       </c>
       <c r="I34" t="n">
         <v>9.72133225138751</v>
@@ -2211,16 +2211,16 @@
         <v>29.71000445935035</v>
       </c>
       <c r="K34" t="n">
-        <v>4.173257178597559</v>
+        <v>4.173257178597354</v>
       </c>
       <c r="L34" t="n">
-        <v>7.020259044544676</v>
+        <v>7.020259044544645</v>
       </c>
       <c r="M34" t="n">
-        <v>3.47149337170883</v>
+        <v>3.471493371708998</v>
       </c>
       <c r="N34" t="n">
-        <v>3.883273616801793</v>
+        <v>3.883273616801741</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.0003016999999978509</v>
+        <v>0.0002199000000047135</v>
       </c>
     </row>
     <row r="35">
@@ -2248,13 +2248,13 @@
         <v>0.3188535051081249</v>
       </c>
       <c r="F35" t="n">
-        <v>17.57208896975731</v>
+        <v>17.57208896975692</v>
       </c>
       <c r="G35" t="n">
-        <v>179.6861975905674</v>
+        <v>179.6861975905675</v>
       </c>
       <c r="H35" t="n">
-        <v>3.25189855169953</v>
+        <v>3.251898551699131</v>
       </c>
       <c r="I35" t="n">
         <v>10.51069784481993</v>
@@ -2263,16 +2263,16 @@
         <v>45.30447558370837</v>
       </c>
       <c r="K35" t="n">
-        <v>6.654789540851312</v>
+        <v>6.65478954085121</v>
       </c>
       <c r="L35" t="n">
-        <v>11.12821207767458</v>
+        <v>11.12821207767467</v>
       </c>
       <c r="M35" t="n">
-        <v>2.829110270769123</v>
+        <v>2.829110270769189</v>
       </c>
       <c r="N35" t="n">
-        <v>7.127256128658788</v>
+        <v>7.127256128658934</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.0003293999999982589</v>
+        <v>0.0003284000000007836</v>
       </c>
     </row>
     <row r="36">
@@ -2300,13 +2300,13 @@
         <v>359.7561648993723</v>
       </c>
       <c r="F36" t="n">
-        <v>17.0591789643142</v>
+        <v>17.05917896431421</v>
       </c>
       <c r="G36" t="n">
-        <v>213.3844267531101</v>
+        <v>213.3844267531109</v>
       </c>
       <c r="H36" t="n">
-        <v>1.948750681292181</v>
+        <v>1.948750681292132</v>
       </c>
       <c r="I36" t="n">
         <v>3.254530440680533</v>
@@ -2315,16 +2315,16 @@
         <v>52.19254532706056</v>
       </c>
       <c r="K36" t="n">
-        <v>359.1334572068776</v>
+        <v>359.1334572068777</v>
       </c>
       <c r="L36" t="n">
-        <v>12.49144836951725</v>
+        <v>12.49144836951733</v>
       </c>
       <c r="M36" t="n">
-        <v>3.368239808864791</v>
+        <v>3.368239808864762</v>
       </c>
       <c r="N36" t="n">
-        <v>8.242835601961882</v>
+        <v>8.24283560196187</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.0002935999999991168</v>
+        <v>0.0002112000000025205</v>
       </c>
     </row>
     <row r="37">
@@ -2352,13 +2352,13 @@
         <v>1.889736710087848</v>
       </c>
       <c r="F37" t="n">
-        <v>16.89023519149339</v>
+        <v>16.89023519149343</v>
       </c>
       <c r="G37" t="n">
-        <v>188.8410128936367</v>
+        <v>188.8410128936368</v>
       </c>
       <c r="H37" t="n">
-        <v>9.56100433063008</v>
+        <v>9.561004330630245</v>
       </c>
       <c r="I37" t="n">
         <v>13.37639473419913</v>
@@ -2367,16 +2367,16 @@
         <v>39.51197959750446</v>
       </c>
       <c r="K37" t="n">
-        <v>359.2970111868252</v>
+        <v>359.2970111868246</v>
       </c>
       <c r="L37" t="n">
-        <v>2.928019482128688</v>
+        <v>2.92801948212854</v>
       </c>
       <c r="M37" t="n">
-        <v>12.33529441055411</v>
+        <v>12.33529441055483</v>
       </c>
       <c r="N37" t="n">
-        <v>8.790217890553855</v>
+        <v>8.790217890554096</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.0002920000000017353</v>
+        <v>0.0001892000000012217</v>
       </c>
     </row>
     <row r="38">
@@ -2404,13 +2404,13 @@
         <v>359.3235867342455</v>
       </c>
       <c r="F38" t="n">
-        <v>14.16050397353757</v>
+        <v>14.16050397353677</v>
       </c>
       <c r="G38" t="n">
-        <v>161.6047653689818</v>
+        <v>161.6047653689856</v>
       </c>
       <c r="H38" t="n">
-        <v>2.956472600145246</v>
+        <v>2.956472600145083</v>
       </c>
       <c r="I38" t="n">
         <v>19.54422612244915</v>
@@ -2419,16 +2419,16 @@
         <v>31.10945420982688</v>
       </c>
       <c r="K38" t="n">
-        <v>14.55399349330998</v>
+        <v>14.55399349330936</v>
       </c>
       <c r="L38" t="n">
-        <v>8.447748047339831</v>
+        <v>8.44774804733909</v>
       </c>
       <c r="M38" t="n">
-        <v>4.758252828131228</v>
+        <v>4.758252828131969</v>
       </c>
       <c r="N38" t="n">
-        <v>5.000227433052618</v>
+        <v>5.00022743305295</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.0002944000000013602</v>
+        <v>0.00018689999999566</v>
       </c>
     </row>
     <row r="39">
@@ -2456,13 +2456,13 @@
         <v>0.05446361233749655</v>
       </c>
       <c r="F39" t="n">
-        <v>21.18063700825887</v>
+        <v>21.18063700825836</v>
       </c>
       <c r="G39" t="n">
-        <v>185.6926085464516</v>
+        <v>185.6926085464519</v>
       </c>
       <c r="H39" t="n">
-        <v>8.732920932757652</v>
+        <v>8.732920932757377</v>
       </c>
       <c r="I39" t="n">
         <v>6.186312769693502</v>
@@ -2471,16 +2471,16 @@
         <v>27.41620526036646</v>
       </c>
       <c r="K39" t="n">
-        <v>1.063983701157589</v>
+        <v>1.063983701157334</v>
       </c>
       <c r="L39" t="n">
-        <v>8.137843947408932</v>
+        <v>8.13784394740876</v>
       </c>
       <c r="M39" t="n">
-        <v>3.347969999977083</v>
+        <v>3.347969999977296</v>
       </c>
       <c r="N39" t="n">
-        <v>2.892390220387882</v>
+        <v>2.892390220387884</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.0003036999999999068</v>
+        <v>0.0001907999999986032</v>
       </c>
     </row>
     <row r="40">
@@ -2508,13 +2508,13 @@
         <v>358.9912943518833</v>
       </c>
       <c r="F40" t="n">
-        <v>10.98703147242742</v>
+        <v>10.98703147242642</v>
       </c>
       <c r="G40" t="n">
-        <v>56.92305608268922</v>
+        <v>56.92305608268906</v>
       </c>
       <c r="H40" t="n">
-        <v>1.618604237438056</v>
+        <v>1.618604237437503</v>
       </c>
       <c r="I40" t="n">
         <v>20.5252257742755</v>
@@ -2523,16 +2523,16 @@
         <v>45.96040818063756</v>
       </c>
       <c r="K40" t="n">
-        <v>15.44178191687974</v>
+        <v>15.44178191687882</v>
       </c>
       <c r="L40" t="n">
-        <v>9.782139654682684</v>
+        <v>9.782139654681231</v>
       </c>
       <c r="M40" t="n">
-        <v>6.06528752475494</v>
+        <v>6.065287524756444</v>
       </c>
       <c r="N40" t="n">
-        <v>5.087327537099686</v>
+        <v>5.087327537100073</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.0002889999999986514</v>
+        <v>0.0002528000000054931</v>
       </c>
     </row>
     <row r="41">
@@ -2560,13 +2560,13 @@
         <v>358.5951604339781</v>
       </c>
       <c r="F41" t="n">
-        <v>10.3159224668133</v>
+        <v>10.315922466813</v>
       </c>
       <c r="G41" t="n">
-        <v>83.25846872238691</v>
+        <v>83.25846872238634</v>
       </c>
       <c r="H41" t="n">
-        <v>1.453541243477262</v>
+        <v>1.453541243477133</v>
       </c>
       <c r="I41" t="n">
         <v>24.59356450720858</v>
@@ -2575,16 +2575,16 @@
         <v>38.67756631959967</v>
       </c>
       <c r="K41" t="n">
-        <v>18.53926011491303</v>
+        <v>18.53926011491272</v>
       </c>
       <c r="L41" t="n">
-        <v>8.33368599454886</v>
+        <v>8.333685994548526</v>
       </c>
       <c r="M41" t="n">
-        <v>7.505739231064248</v>
+        <v>7.505739231064781</v>
       </c>
       <c r="N41" t="n">
-        <v>5.41169360632278</v>
+        <v>5.411693606322913</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.0002819999999985612</v>
+        <v>0.0002594999999985248</v>
       </c>
     </row>
     <row r="42">
@@ -2612,13 +2612,13 @@
         <v>0.6075476972112318</v>
       </c>
       <c r="F42" t="n">
-        <v>19.98217090553007</v>
+        <v>19.98217090553014</v>
       </c>
       <c r="G42" t="n">
-        <v>186.5338807766975</v>
+        <v>186.5338807766974</v>
       </c>
       <c r="H42" t="n">
-        <v>7.952705903292109</v>
+        <v>7.952705903291841</v>
       </c>
       <c r="I42" t="n">
         <v>7.93230154723043</v>
@@ -2627,16 +2627,16 @@
         <v>39.01438474191893</v>
       </c>
       <c r="K42" t="n">
-        <v>2.153202121197029</v>
+        <v>2.153202121197309</v>
       </c>
       <c r="L42" t="n">
-        <v>7.88899395282806</v>
+        <v>7.888993952828447</v>
       </c>
       <c r="M42" t="n">
-        <v>3.821753903724079</v>
+        <v>3.821753903723856</v>
       </c>
       <c r="N42" t="n">
-        <v>8.528849378256243</v>
+        <v>8.52884937825597</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.0003161000000027059</v>
+        <v>0.000218199999999058</v>
       </c>
     </row>
     <row r="43">
@@ -2664,13 +2664,13 @@
         <v>0.2707123230673222</v>
       </c>
       <c r="F43" t="n">
-        <v>20.16131066554886</v>
+        <v>20.16131066554876</v>
       </c>
       <c r="G43" t="n">
-        <v>187.6770949897278</v>
+        <v>187.6770949897279</v>
       </c>
       <c r="H43" t="n">
-        <v>6.783561028426339</v>
+        <v>6.783561028426538</v>
       </c>
       <c r="I43" t="n">
         <v>5.928428201044865</v>
@@ -2679,16 +2679,16 @@
         <v>40.60700288008367</v>
       </c>
       <c r="K43" t="n">
-        <v>1.077504086976682</v>
+        <v>1.077504086976478</v>
       </c>
       <c r="L43" t="n">
-        <v>9.479089920763524</v>
+        <v>9.479089920763185</v>
       </c>
       <c r="M43" t="n">
-        <v>3.155646345102108</v>
+        <v>3.155646345102256</v>
       </c>
       <c r="N43" t="n">
-        <v>8.326031398894969</v>
+        <v>8.326031398895173</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.0002974999999985073</v>
+        <v>0.000237499999997226</v>
       </c>
     </row>
     <row r="44">
@@ -2716,13 +2716,13 @@
         <v>359.5032858469888</v>
       </c>
       <c r="F44" t="n">
-        <v>12.61412102969747</v>
+        <v>12.61412102969766</v>
       </c>
       <c r="G44" t="n">
-        <v>68.22247456542466</v>
+        <v>68.22247456542307</v>
       </c>
       <c r="H44" t="n">
-        <v>2.104412197776204</v>
+        <v>2.104412197776341</v>
       </c>
       <c r="I44" t="n">
         <v>21.26723767084115</v>
@@ -2731,16 +2731,16 @@
         <v>47.24055450089488</v>
       </c>
       <c r="K44" t="n">
-        <v>17.30263063853484</v>
+        <v>17.30263063853496</v>
       </c>
       <c r="L44" t="n">
-        <v>11.45243324914011</v>
+        <v>11.45243324914045</v>
       </c>
       <c r="M44" t="n">
-        <v>4.12061756412542</v>
+        <v>4.12061756412523</v>
       </c>
       <c r="N44" t="n">
-        <v>4.408771090656982</v>
+        <v>4.408771090656878</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.0002884999999999138</v>
+        <v>0.0002528999999995563</v>
       </c>
     </row>
     <row r="45">
@@ -2768,13 +2768,13 @@
         <v>359.7426000746553</v>
       </c>
       <c r="F45" t="n">
-        <v>15.647222296358</v>
+        <v>15.64722229635781</v>
       </c>
       <c r="G45" t="n">
-        <v>254.3059453204856</v>
+        <v>254.3059453204866</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4740183169927223</v>
+        <v>0.4740183169927462</v>
       </c>
       <c r="I45" t="n">
         <v>6.462352581508514</v>
@@ -2783,13 +2783,13 @@
         <v>49.26789962097028</v>
       </c>
       <c r="K45" t="n">
-        <v>2.457047616132336</v>
+        <v>2.457047616132246</v>
       </c>
       <c r="L45" t="n">
-        <v>12.88868459552437</v>
+        <v>12.88868459552418</v>
       </c>
       <c r="M45" t="n">
-        <v>3.250619544096149</v>
+        <v>3.250619544096242</v>
       </c>
       <c r="N45" t="n">
         <v>7.777128195696557</v>
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.0004062000000004673</v>
+        <v>0.0002119999999976585</v>
       </c>
     </row>
     <row r="46">
@@ -2820,13 +2820,13 @@
         <v>0.7506147172558701</v>
       </c>
       <c r="F46" t="n">
-        <v>22.15596050659988</v>
+        <v>22.15596050659943</v>
       </c>
       <c r="G46" t="n">
-        <v>186.7716291952876</v>
+        <v>186.7716291952878</v>
       </c>
       <c r="H46" t="n">
-        <v>12.93915363240746</v>
+        <v>12.93915363240704</v>
       </c>
       <c r="I46" t="n">
         <v>6.414402748801739</v>
@@ -2838,13 +2838,13 @@
         <v>354.8654447539587</v>
       </c>
       <c r="L46" t="n">
-        <v>4.135623534223237</v>
+        <v>4.135623534223297</v>
       </c>
       <c r="M46" t="n">
-        <v>8.330979660783314</v>
+        <v>8.330979660783481</v>
       </c>
       <c r="N46" t="n">
-        <v>10.35627483077695</v>
+        <v>10.35627483077671</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.0003022000000001412</v>
+        <v>0.0001895999999987907</v>
       </c>
     </row>
     <row r="47">
@@ -2872,13 +2872,13 @@
         <v>359.9736252271504</v>
       </c>
       <c r="F47" t="n">
-        <v>22.06249300633673</v>
+        <v>22.06249300633707</v>
       </c>
       <c r="G47" t="n">
-        <v>187.6978464871513</v>
+        <v>187.6978464871509</v>
       </c>
       <c r="H47" t="n">
-        <v>8.172055512089077</v>
+        <v>8.172055512089644</v>
       </c>
       <c r="I47" t="n">
         <v>3.467189284049275</v>
@@ -2887,16 +2887,16 @@
         <v>25.92450555328367</v>
       </c>
       <c r="K47" t="n">
-        <v>359.0973655888548</v>
+        <v>359.0973655888546</v>
       </c>
       <c r="L47" t="n">
-        <v>9.729242459121734</v>
+        <v>9.729242459121387</v>
       </c>
       <c r="M47" t="n">
-        <v>2.557579296845677</v>
+        <v>2.55757929684573</v>
       </c>
       <c r="N47" t="n">
-        <v>2.746180121479757</v>
+        <v>2.746180121479649</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.0002943000000001916</v>
+        <v>0.0001942000000028088</v>
       </c>
     </row>
     <row r="48">
@@ -2924,13 +2924,13 @@
         <v>359.4151241601295</v>
       </c>
       <c r="F48" t="n">
-        <v>15.66460949923469</v>
+        <v>15.66460949923562</v>
       </c>
       <c r="G48" t="n">
-        <v>167.5983322627921</v>
+        <v>167.5983322627881</v>
       </c>
       <c r="H48" t="n">
-        <v>4.041106560340307</v>
+        <v>4.041106560340374</v>
       </c>
       <c r="I48" t="n">
         <v>18.46712300039825</v>
@@ -2939,16 +2939,16 @@
         <v>28.96028508939844</v>
       </c>
       <c r="K48" t="n">
-        <v>13.86871232203266</v>
+        <v>13.86871232203336</v>
       </c>
       <c r="L48" t="n">
-        <v>8.560826417274011</v>
+        <v>8.56082641727499</v>
       </c>
       <c r="M48" t="n">
-        <v>4.085701570845091</v>
+        <v>4.08570157084435</v>
       </c>
       <c r="N48" t="n">
-        <v>4.534830779825686</v>
+        <v>4.534830779825344</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.0002874999999988859</v>
+        <v>0.000194800000002715</v>
       </c>
     </row>
     <row r="49">
@@ -2976,13 +2976,13 @@
         <v>0.8480094757661352</v>
       </c>
       <c r="F49" t="n">
-        <v>18.60176930810035</v>
+        <v>18.60176930810044</v>
       </c>
       <c r="G49" t="n">
-        <v>188.6863402202181</v>
+        <v>188.686340220218</v>
       </c>
       <c r="H49" t="n">
-        <v>6.799682797530799</v>
+        <v>6.79968279753081</v>
       </c>
       <c r="I49" t="n">
         <v>7.737749257815719</v>
@@ -2991,16 +2991,16 @@
         <v>54.40266989146843</v>
       </c>
       <c r="K49" t="n">
-        <v>1.544330170563341</v>
+        <v>1.54433017056343</v>
       </c>
       <c r="L49" t="n">
-        <v>7.920218415825068</v>
+        <v>7.920218415825141</v>
       </c>
       <c r="M49" t="n">
-        <v>4.524978058673477</v>
+        <v>4.524978058673397</v>
       </c>
       <c r="N49" t="n">
-        <v>8.521943171047974</v>
+        <v>8.521943171047948</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.0003041999999986444</v>
+        <v>0.0002597999999949252</v>
       </c>
     </row>
     <row r="50">
@@ -3028,13 +3028,13 @@
         <v>0.9936313199284542</v>
       </c>
       <c r="F50" t="n">
-        <v>14.78241330118166</v>
+        <v>14.78241330118192</v>
       </c>
       <c r="G50" t="n">
-        <v>266.1550588689316</v>
+        <v>266.1550588689174</v>
       </c>
       <c r="H50" t="n">
-        <v>1.807148390440955</v>
+        <v>1.807148390440999</v>
       </c>
       <c r="I50" t="n">
         <v>2.206985498596769</v>
@@ -3043,16 +3043,16 @@
         <v>53.83741801538552</v>
       </c>
       <c r="K50" t="n">
-        <v>356.4913580665278</v>
+        <v>356.4913580665277</v>
       </c>
       <c r="L50" t="n">
-        <v>12.04098052972711</v>
+        <v>12.04098052972683</v>
       </c>
       <c r="M50" t="n">
-        <v>4.358061550716375</v>
+        <v>4.358061550716466</v>
       </c>
       <c r="N50" t="n">
-        <v>7.317847195909457</v>
+        <v>7.31784719590987</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.0002774999999992644</v>
+        <v>0.000206699999999671</v>
       </c>
     </row>
     <row r="51">
@@ -3080,13 +3080,13 @@
         <v>1.043159078206592</v>
       </c>
       <c r="F51" t="n">
-        <v>19.69761578157732</v>
+        <v>19.69761578157701</v>
       </c>
       <c r="G51" t="n">
-        <v>186.2461345606982</v>
+        <v>186.2461345606985</v>
       </c>
       <c r="H51" t="n">
-        <v>8.04360390722058</v>
+        <v>8.043603907220442</v>
       </c>
       <c r="I51" t="n">
         <v>9.522643035896857</v>
@@ -3095,16 +3095,16 @@
         <v>42.15412902103607</v>
       </c>
       <c r="K51" t="n">
-        <v>3.661778694828018</v>
+        <v>3.661778694827814</v>
       </c>
       <c r="L51" t="n">
-        <v>7.498271450673935</v>
+        <v>7.498271450673799</v>
       </c>
       <c r="M51" t="n">
-        <v>3.616602230866066</v>
+        <v>3.616602230866236</v>
       </c>
       <c r="N51" t="n">
-        <v>7.008546143967917</v>
+        <v>7.008546143967921</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.0003087000000014939</v>
+        <v>0.0001973999999975717</v>
       </c>
     </row>
     <row r="52">
@@ -3132,13 +3132,13 @@
         <v>1.560352108683647</v>
       </c>
       <c r="F52" t="n">
-        <v>18.13719272400978</v>
+        <v>18.13719272400983</v>
       </c>
       <c r="G52" t="n">
-        <v>187.4043761064906</v>
+        <v>187.4043761064904</v>
       </c>
       <c r="H52" t="n">
-        <v>9.154428926718428</v>
+        <v>9.154428926718197</v>
       </c>
       <c r="I52" t="n">
         <v>12.12114158782843</v>
@@ -3147,16 +3147,16 @@
         <v>38.3554914922189</v>
       </c>
       <c r="K52" t="n">
-        <v>3.080273964593023</v>
+        <v>3.080273964593596</v>
       </c>
       <c r="L52" t="n">
-        <v>4.627078274411923</v>
+        <v>4.62707827441225</v>
       </c>
       <c r="M52" t="n">
-        <v>6.50521201507322</v>
+        <v>6.505212015072699</v>
       </c>
       <c r="N52" t="n">
-        <v>7.674431948249228</v>
+        <v>7.674431948248968</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.0006294000000011124</v>
+        <v>0.0001914000000056149</v>
       </c>
     </row>
     <row r="53">
@@ -3184,13 +3184,13 @@
         <v>0.2905031733486384</v>
       </c>
       <c r="F53" t="n">
-        <v>19.57312935743711</v>
+        <v>19.57312935743706</v>
       </c>
       <c r="G53" t="n">
         <v>185.759169607497</v>
       </c>
       <c r="H53" t="n">
-        <v>6.096533799110071</v>
+        <v>6.096533799109922</v>
       </c>
       <c r="I53" t="n">
         <v>7.748476824274211</v>
@@ -3199,16 +3199,16 @@
         <v>35.48188845695773</v>
       </c>
       <c r="K53" t="n">
-        <v>3.167581592990588</v>
+        <v>3.167581592990626</v>
       </c>
       <c r="L53" t="n">
-        <v>9.692409824166901</v>
+        <v>9.692409824167033</v>
       </c>
       <c r="M53" t="n">
-        <v>2.933962788697966</v>
+        <v>2.933962788697935</v>
       </c>
       <c r="N53" t="n">
-        <v>5.769469819920172</v>
+        <v>5.769469819920054</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.0003065999999982694</v>
+        <v>0.0002288000000021384</v>
       </c>
     </row>
     <row r="54">
@@ -3236,13 +3236,13 @@
         <v>359.4805241593859</v>
       </c>
       <c r="F54" t="n">
-        <v>17.80750278319435</v>
+        <v>17.80750278319385</v>
       </c>
       <c r="G54" t="n">
-        <v>191.4627142798628</v>
+        <v>191.4627142798638</v>
       </c>
       <c r="H54" t="n">
-        <v>2.814325475528925</v>
+        <v>2.814325475529068</v>
       </c>
       <c r="I54" t="n">
         <v>5.48941339683741</v>
@@ -3251,16 +3251,16 @@
         <v>34.1625217894218</v>
       </c>
       <c r="K54" t="n">
-        <v>1.628908815549608</v>
+        <v>1.628908815549277</v>
       </c>
       <c r="L54" t="n">
-        <v>11.88538135481467</v>
+        <v>11.88538135481401</v>
       </c>
       <c r="M54" t="n">
-        <v>3.095425652715142</v>
+        <v>3.095425652715428</v>
       </c>
       <c r="N54" t="n">
-        <v>3.511086913043924</v>
+        <v>3.511086913043951</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.0002861000000002889</v>
+        <v>0.000243599999997457</v>
       </c>
     </row>
     <row r="55">
@@ -3288,13 +3288,13 @@
         <v>359.7941351331494</v>
       </c>
       <c r="F55" t="n">
-        <v>17.44927166413503</v>
+        <v>17.44927166413529</v>
       </c>
       <c r="G55" t="n">
-        <v>178.9610735822615</v>
+        <v>178.9610735822616</v>
       </c>
       <c r="H55" t="n">
-        <v>5.802732092867374</v>
+        <v>5.802732092867676</v>
       </c>
       <c r="I55" t="n">
         <v>13.68504178555428</v>
@@ -3303,16 +3303,16 @@
         <v>27.82199853704786</v>
       </c>
       <c r="K55" t="n">
-        <v>8.910670961012265</v>
+        <v>8.910670961012327</v>
       </c>
       <c r="L55" t="n">
-        <v>7.966813954391539</v>
+        <v>7.966813954391434</v>
       </c>
       <c r="M55" t="n">
-        <v>3.736507193830756</v>
+        <v>3.736507193830697</v>
       </c>
       <c r="N55" t="n">
-        <v>4.056728542078086</v>
+        <v>4.056728542078003</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.0002886999999986983</v>
+        <v>0.0002441999999973632</v>
       </c>
     </row>
     <row r="56">
@@ -3340,13 +3340,13 @@
         <v>1.852210744612911</v>
       </c>
       <c r="F56" t="n">
-        <v>17.74707861092113</v>
+        <v>17.74707861092076</v>
       </c>
       <c r="G56" t="n">
-        <v>187.1184576398591</v>
+        <v>187.1184576398597</v>
       </c>
       <c r="H56" t="n">
-        <v>8.78878334571132</v>
+        <v>8.788783345711606</v>
       </c>
       <c r="I56" t="n">
         <v>13.80604339457914</v>
@@ -3355,16 +3355,16 @@
         <v>40.75218031113259</v>
       </c>
       <c r="K56" t="n">
-        <v>5.363259604607309</v>
+        <v>5.363259604605974</v>
       </c>
       <c r="L56" t="n">
-        <v>4.676669637916687</v>
+        <v>4.676669637915975</v>
       </c>
       <c r="M56" t="n">
-        <v>5.877457451419646</v>
+        <v>5.877457451420843</v>
       </c>
       <c r="N56" t="n">
-        <v>6.859013340902088</v>
+        <v>6.859013340902565</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.0003021999999965885</v>
+        <v>0.0002458000000018501</v>
       </c>
     </row>
     <row r="57">
@@ -3392,13 +3392,13 @@
         <v>1.623731114633993</v>
       </c>
       <c r="F57" t="n">
-        <v>19.12330199705822</v>
+        <v>19.12330199705817</v>
       </c>
       <c r="G57" t="n">
-        <v>189.7559534624944</v>
+        <v>189.7559534624945</v>
       </c>
       <c r="H57" t="n">
-        <v>12.16764909549839</v>
+        <v>12.167649095498</v>
       </c>
       <c r="I57" t="n">
         <v>6.567392205827259</v>
@@ -3407,16 +3407,16 @@
         <v>54.58643989705576</v>
       </c>
       <c r="K57" t="n">
-        <v>340.1399077276348</v>
+        <v>340.1399077276398</v>
       </c>
       <c r="L57" t="n">
-        <v>2.242617199281948</v>
+        <v>2.242617199282336</v>
       </c>
       <c r="M57" t="n">
-        <v>30.72269428886856</v>
+        <v>30.72269428886005</v>
       </c>
       <c r="N57" t="n">
-        <v>12.95498384968516</v>
+        <v>12.954983849684</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.0002849999999980923</v>
+        <v>0.0001895000000047276</v>
       </c>
     </row>
     <row r="58">
@@ -3444,13 +3444,13 @@
         <v>1.037643175502579</v>
       </c>
       <c r="F58" t="n">
-        <v>21.21009917025883</v>
+        <v>21.21009917025836</v>
       </c>
       <c r="G58" t="n">
-        <v>189.3957662926279</v>
+        <v>189.3957662926285</v>
       </c>
       <c r="H58" t="n">
-        <v>12.4611335824394</v>
+        <v>12.46113358243841</v>
       </c>
       <c r="I58" t="n">
         <v>3.134105438173524</v>
@@ -3459,16 +3459,16 @@
         <v>29.03628849697263</v>
       </c>
       <c r="K58" t="n">
-        <v>346.9905192587767</v>
+        <v>346.9905192587796</v>
       </c>
       <c r="L58" t="n">
-        <v>3.938601867283785</v>
+        <v>3.938601867284475</v>
       </c>
       <c r="M58" t="n">
-        <v>14.68076083988588</v>
+        <v>14.68076083988211</v>
       </c>
       <c r="N58" t="n">
-        <v>7.732323238232061</v>
+        <v>7.732323238230943</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.0002841999999994016</v>
+        <v>0.0003601999999958139</v>
       </c>
     </row>
     <row r="59">
@@ -3496,13 +3496,13 @@
         <v>0.1310521573469041</v>
       </c>
       <c r="F59" t="n">
-        <v>17.42368229757078</v>
+        <v>17.42368229757107</v>
       </c>
       <c r="G59" t="n">
-        <v>199.195551013636</v>
+        <v>199.1955510136334</v>
       </c>
       <c r="H59" t="n">
-        <v>3.572469617642604</v>
+        <v>3.572469617643145</v>
       </c>
       <c r="I59" t="n">
         <v>3.955386232874815</v>
@@ -3511,16 +3511,16 @@
         <v>44.14878636314997</v>
       </c>
       <c r="K59" t="n">
-        <v>358.9391767546542</v>
+        <v>358.9391767546541</v>
       </c>
       <c r="L59" t="n">
-        <v>10.76050201060659</v>
+        <v>10.76050201060619</v>
       </c>
       <c r="M59" t="n">
-        <v>3.78038210723007</v>
+        <v>3.780382107230172</v>
       </c>
       <c r="N59" t="n">
-        <v>7.878671122942454</v>
+        <v>7.878671122942302</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.0003337999999999397</v>
+        <v>0.0002208000000010202</v>
       </c>
     </row>
     <row r="60">
@@ -3548,13 +3548,13 @@
         <v>0.7601861461745285</v>
       </c>
       <c r="F60" t="n">
-        <v>17.32391062717831</v>
+        <v>17.32391062717856</v>
       </c>
       <c r="G60" t="n">
-        <v>174.8024440648911</v>
+        <v>174.8024440648896</v>
       </c>
       <c r="H60" t="n">
-        <v>3.796486530085579</v>
+        <v>3.796486530085453</v>
       </c>
       <c r="I60" t="n">
         <v>14.02411002723861</v>
@@ -3563,16 +3563,16 @@
         <v>42.81185243735961</v>
       </c>
       <c r="K60" t="n">
-        <v>10.10893360452762</v>
+        <v>10.10893360452781</v>
       </c>
       <c r="L60" t="n">
-        <v>10.32932599330188</v>
+        <v>10.32932599330229</v>
       </c>
       <c r="M60" t="n">
-        <v>2.667728637648172</v>
+        <v>2.667728637648016</v>
       </c>
       <c r="N60" t="n">
-        <v>6.342462266644476</v>
+        <v>6.342462266644409</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.0003010999999979447</v>
+        <v>0.0001870999999979972</v>
       </c>
     </row>
     <row r="61">
@@ -3600,13 +3600,13 @@
         <v>1.669283521394728</v>
       </c>
       <c r="F61" t="n">
-        <v>18.6991484144936</v>
+        <v>18.69914841449378</v>
       </c>
       <c r="G61" t="n">
-        <v>190.7900591020075</v>
+        <v>190.7900591020073</v>
       </c>
       <c r="H61" t="n">
-        <v>12.45985265567255</v>
+        <v>12.45985265567281</v>
       </c>
       <c r="I61" t="n">
         <v>4.618349672385955</v>
@@ -3615,16 +3615,16 @@
         <v>31.77994929725002</v>
       </c>
       <c r="K61" t="n">
-        <v>321.9990444444991</v>
+        <v>321.9990444444959</v>
       </c>
       <c r="L61" t="n">
-        <v>1.760632464383088</v>
+        <v>1.760632464382984</v>
       </c>
       <c r="M61" t="n">
-        <v>70.89328883720816</v>
+        <v>70.89328883721656</v>
       </c>
       <c r="N61" t="n">
-        <v>16.70503202019339</v>
+        <v>16.70503202019432</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.0002921000000029039</v>
+        <v>0.0001889999999988845</v>
       </c>
     </row>
     <row r="62">
@@ -3652,13 +3652,13 @@
         <v>0.9217709932130896</v>
       </c>
       <c r="F62" t="n">
-        <v>19.04829775169233</v>
+        <v>19.04829775169208</v>
       </c>
       <c r="G62" t="n">
-        <v>187.5027126517332</v>
+        <v>187.5027126517334</v>
       </c>
       <c r="H62" t="n">
-        <v>9.339108804752534</v>
+        <v>9.339108804752366</v>
       </c>
       <c r="I62" t="n">
         <v>8.681791459262989</v>
@@ -3667,16 +3667,16 @@
         <v>41.54402924555519</v>
       </c>
       <c r="K62" t="n">
-        <v>0.1461322334205278</v>
+        <v>0.146132233420337</v>
       </c>
       <c r="L62" t="n">
-        <v>5.318503116130638</v>
+        <v>5.318503116130582</v>
       </c>
       <c r="M62" t="n">
-        <v>6.514620871980226</v>
+        <v>6.514620871980458</v>
       </c>
       <c r="N62" t="n">
-        <v>8.873686273210771</v>
+        <v>8.873686273210746</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.0002895000000009418</v>
+        <v>0.0001934000000005653</v>
       </c>
     </row>
     <row r="63">
@@ -3704,13 +3704,13 @@
         <v>0.4314955515598153</v>
       </c>
       <c r="F63" t="n">
-        <v>20.68442393458185</v>
+        <v>20.68442393458197</v>
       </c>
       <c r="G63" t="n">
-        <v>185.6516733070872</v>
+        <v>185.651673307087</v>
       </c>
       <c r="H63" t="n">
-        <v>9.447928111599243</v>
+        <v>9.447928111598992</v>
       </c>
       <c r="I63" t="n">
         <v>7.850039722804902</v>
@@ -3719,16 +3719,16 @@
         <v>32.39652408006119</v>
       </c>
       <c r="K63" t="n">
-        <v>1.770260554089446</v>
+        <v>1.770260554089853</v>
       </c>
       <c r="L63" t="n">
-        <v>6.788312804142597</v>
+        <v>6.788312804143015</v>
       </c>
       <c r="M63" t="n">
-        <v>4.168905582370174</v>
+        <v>4.168905582369853</v>
       </c>
       <c r="N63" t="n">
-        <v>5.831721323679234</v>
+        <v>5.831721323678988</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.0003069999999993911</v>
+        <v>0.0002487000000002126</v>
       </c>
     </row>
     <row r="64">
@@ -3756,13 +3756,13 @@
         <v>0.01232542630370722</v>
       </c>
       <c r="F64" t="n">
-        <v>19.66430109755663</v>
+        <v>19.66430109755692</v>
       </c>
       <c r="G64" t="n">
-        <v>196.5110479044145</v>
+        <v>196.5110479044125</v>
       </c>
       <c r="H64" t="n">
-        <v>4.498290650470007</v>
+        <v>4.49829065047058</v>
       </c>
       <c r="I64" t="n">
         <v>2.741606634097171</v>
@@ -3771,16 +3771,16 @@
         <v>48.02196508739905</v>
       </c>
       <c r="K64" t="n">
-        <v>358.2660362648566</v>
+        <v>358.2660362648564</v>
       </c>
       <c r="L64" t="n">
-        <v>11.87801301332934</v>
+        <v>11.87801301332893</v>
       </c>
       <c r="M64" t="n">
-        <v>3.124197586474881</v>
+        <v>3.12419758647497</v>
       </c>
       <c r="N64" t="n">
-        <v>7.84449701468272</v>
+        <v>7.844497014682677</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.0002899999999996794</v>
+        <v>0.0002016000000040208</v>
       </c>
     </row>
     <row r="65">
@@ -3808,13 +3808,13 @@
         <v>2.138978653518098</v>
       </c>
       <c r="F65" t="n">
-        <v>16.33463906275095</v>
+        <v>16.33463906275072</v>
       </c>
       <c r="G65" t="n">
-        <v>188.6295122364337</v>
+        <v>188.6295122364339</v>
       </c>
       <c r="H65" t="n">
-        <v>9.056804230264458</v>
+        <v>9.056804230264357</v>
       </c>
       <c r="I65" t="n">
         <v>16.10870148266759</v>
@@ -3823,16 +3823,16 @@
         <v>37.27781598912134</v>
       </c>
       <c r="K65" t="n">
-        <v>2.887932152348164</v>
+        <v>2.88793215234749</v>
       </c>
       <c r="L65" t="n">
-        <v>2.965532370800578</v>
+        <v>2.96553237080047</v>
       </c>
       <c r="M65" t="n">
-        <v>10.81200326263127</v>
+        <v>10.8120032626321</v>
       </c>
       <c r="N65" t="n">
-        <v>7.481950811662496</v>
+        <v>7.481950811662647</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.0002814000000022077</v>
+        <v>0.0001898999999951911</v>
       </c>
     </row>
     <row r="66">
@@ -3860,13 +3860,13 @@
         <v>358.8996770607683</v>
       </c>
       <c r="F66" t="n">
-        <v>10.56831747881615</v>
+        <v>10.56831747881682</v>
       </c>
       <c r="G66" t="n">
-        <v>31.86252594262511</v>
+        <v>31.86252594262715</v>
       </c>
       <c r="H66" t="n">
-        <v>1.079605499053362</v>
+        <v>1.079605499053876</v>
       </c>
       <c r="I66" t="n">
         <v>16.16170376099309</v>
@@ -3875,16 +3875,16 @@
         <v>43.46372352112631</v>
       </c>
       <c r="K66" t="n">
-        <v>10.34089935179648</v>
+        <v>10.34089935179733</v>
       </c>
       <c r="L66" t="n">
-        <v>9.199749295057803</v>
+        <v>9.199749295059013</v>
       </c>
       <c r="M66" t="n">
-        <v>7.335605150946104</v>
+        <v>7.335605150944616</v>
       </c>
       <c r="N66" t="n">
-        <v>5.90320884970059</v>
+        <v>5.903208849700148</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.0003126000000008844</v>
+        <v>0.000216500000000508</v>
       </c>
     </row>
     <row r="67">
@@ -3912,13 +3912,13 @@
         <v>0.8336648231326874</v>
       </c>
       <c r="F67" t="n">
-        <v>22.71247717513929</v>
+        <v>22.7124771751394</v>
       </c>
       <c r="G67" t="n">
         <v>187.3502325171168</v>
       </c>
       <c r="H67" t="n">
-        <v>12.01561219166333</v>
+        <v>12.0156121916631</v>
       </c>
       <c r="I67" t="n">
         <v>5.274021781485452</v>
@@ -3927,16 +3927,16 @@
         <v>40.68913562875419</v>
       </c>
       <c r="K67" t="n">
-        <v>356.6045281275588</v>
+        <v>356.6045281275594</v>
       </c>
       <c r="L67" t="n">
-        <v>5.803647767624015</v>
+        <v>5.803647767624398</v>
       </c>
       <c r="M67" t="n">
-        <v>5.577720760537591</v>
+        <v>5.577720760537054</v>
       </c>
       <c r="N67" t="n">
-        <v>13.69179322452446</v>
+        <v>13.6917932245241</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.0003004000000004226</v>
+        <v>0.0001924999999971533</v>
       </c>
     </row>
     <row r="68">
@@ -3964,13 +3964,13 @@
         <v>358.5843856359357</v>
       </c>
       <c r="F68" t="n">
-        <v>11.99733941010043</v>
+        <v>11.99733941010038</v>
       </c>
       <c r="G68" t="n">
-        <v>356.1573558244505</v>
+        <v>356.1573558244501</v>
       </c>
       <c r="H68" t="n">
-        <v>5.166542243121078</v>
+        <v>5.166542243120901</v>
       </c>
       <c r="I68" t="n">
         <v>5.062672950318515</v>
@@ -3979,16 +3979,16 @@
         <v>42.43801944024082</v>
       </c>
       <c r="K68" t="n">
-        <v>1.687737360908995</v>
+        <v>1.687737360908931</v>
       </c>
       <c r="L68" t="n">
-        <v>15.5699823393788</v>
+        <v>15.56998233937854</v>
       </c>
       <c r="M68" t="n">
-        <v>3.563371399010078</v>
+        <v>3.563371399010158</v>
       </c>
       <c r="N68" t="n">
-        <v>2.994504817251542</v>
+        <v>2.99450481725148</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.000290100000000848</v>
+        <v>0.0002380000000030691</v>
       </c>
     </row>
     <row r="69">
@@ -4016,13 +4016,13 @@
         <v>358.8714778477798</v>
       </c>
       <c r="F69" t="n">
-        <v>10.86492230368237</v>
+        <v>10.86492230368332</v>
       </c>
       <c r="G69" t="n">
-        <v>90.24772606965247</v>
+        <v>90.24772606965125</v>
       </c>
       <c r="H69" t="n">
-        <v>1.719670633189637</v>
+        <v>1.719670633190078</v>
       </c>
       <c r="I69" t="n">
         <v>25.81153388271712</v>
@@ -4031,16 +4031,16 @@
         <v>38.98056188996542</v>
       </c>
       <c r="K69" t="n">
-        <v>20.13400790062286</v>
+        <v>20.13400790062378</v>
       </c>
       <c r="L69" t="n">
-        <v>8.773689340598546</v>
+        <v>8.773689340599651</v>
       </c>
       <c r="M69" t="n">
-        <v>6.487925848414576</v>
+        <v>6.487925848413152</v>
       </c>
       <c r="N69" t="n">
-        <v>5.087961668681599</v>
+        <v>5.087961668681272</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.0007091000000016834</v>
+        <v>0.0001999999999995339</v>
       </c>
     </row>
     <row r="70">
@@ -4068,13 +4068,13 @@
         <v>0.9444763643716535</v>
       </c>
       <c r="F70" t="n">
-        <v>21.1168590471226</v>
+        <v>21.11685904712201</v>
       </c>
       <c r="G70" t="n">
-        <v>187.9686634689782</v>
+        <v>187.9686634689786</v>
       </c>
       <c r="H70" t="n">
-        <v>11.67172918645626</v>
+        <v>11.67172918645551</v>
       </c>
       <c r="I70" t="n">
         <v>6.014679871228592</v>
@@ -4083,16 +4083,16 @@
         <v>40.50448663765381</v>
       </c>
       <c r="K70" t="n">
-        <v>354.7744774264793</v>
+        <v>354.7744774264798</v>
       </c>
       <c r="L70" t="n">
-        <v>4.646104249479149</v>
+        <v>4.646104249479458</v>
       </c>
       <c r="M70" t="n">
-        <v>8.00100672740265</v>
+        <v>8.001006727402302</v>
       </c>
       <c r="N70" t="n">
-        <v>13.60638288096661</v>
+        <v>13.60638288096596</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.0003093000000014001</v>
+        <v>0.0001889999999988845</v>
       </c>
     </row>
     <row r="71">
@@ -4120,13 +4120,13 @@
         <v>359.0844929014519</v>
       </c>
       <c r="F71" t="n">
-        <v>11.71162287640946</v>
+        <v>11.71162287640922</v>
       </c>
       <c r="G71" t="n">
-        <v>28.81130479662052</v>
+        <v>28.81130479662061</v>
       </c>
       <c r="H71" t="n">
-        <v>2.547848415788737</v>
+        <v>2.547848415788437</v>
       </c>
       <c r="I71" t="n">
         <v>16.08018820099398</v>
@@ -4135,16 +4135,16 @@
         <v>48.38554590561366</v>
       </c>
       <c r="K71" t="n">
-        <v>11.78754959294435</v>
+        <v>11.78754959294414</v>
       </c>
       <c r="L71" t="n">
-        <v>12.02632407783181</v>
+        <v>12.02632407783122</v>
       </c>
       <c r="M71" t="n">
-        <v>4.525513344225588</v>
+        <v>4.525513344225921</v>
       </c>
       <c r="N71" t="n">
-        <v>4.937214416646511</v>
+        <v>4.937214416646645</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.0002920999999993512</v>
+        <v>0.0001869000000027654</v>
       </c>
     </row>
     <row r="72">
@@ -4172,13 +4172,13 @@
         <v>359.1490025916981</v>
       </c>
       <c r="F72" t="n">
-        <v>16.79541296058583</v>
+        <v>16.79541296058566</v>
       </c>
       <c r="G72" t="n">
-        <v>178.3937510104378</v>
+        <v>178.3937510104384</v>
       </c>
       <c r="H72" t="n">
-        <v>4.91790954891168</v>
+        <v>4.917909548911736</v>
       </c>
       <c r="I72" t="n">
         <v>12.56035812480068</v>
@@ -4187,16 +4187,16 @@
         <v>22.16891449794234</v>
       </c>
       <c r="K72" t="n">
-        <v>7.476907508175098</v>
+        <v>7.476907508174907</v>
       </c>
       <c r="L72" t="n">
-        <v>8.349013834250448</v>
+        <v>8.349013834250199</v>
       </c>
       <c r="M72" t="n">
-        <v>3.980639253524172</v>
+        <v>3.980639253524342</v>
       </c>
       <c r="N72" t="n">
-        <v>4.183216655750202</v>
+        <v>4.183216655750274</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.0002914000000018291</v>
+        <v>0.0001862000000016906</v>
       </c>
     </row>
     <row r="73">
@@ -4224,13 +4224,13 @@
         <v>0.4306031497297935</v>
       </c>
       <c r="F73" t="n">
-        <v>19.36957805789243</v>
+        <v>19.36957805789234</v>
       </c>
       <c r="G73" t="n">
-        <v>186.3395392618612</v>
+        <v>186.3395392618613</v>
       </c>
       <c r="H73" t="n">
-        <v>6.479033322302337</v>
+        <v>6.479033322302141</v>
       </c>
       <c r="I73" t="n">
         <v>7.859910572602633</v>
@@ -4239,16 +4239,16 @@
         <v>45.46351225095051</v>
       </c>
       <c r="K73" t="n">
-        <v>2.902017931391212</v>
+        <v>2.902017931391263</v>
       </c>
       <c r="L73" t="n">
-        <v>9.036961016090578</v>
+        <v>9.036961016090734</v>
       </c>
       <c r="M73" t="n">
-        <v>3.431142139767436</v>
+        <v>3.431142139767395</v>
       </c>
       <c r="N73" t="n">
-        <v>6.777922816166778</v>
+        <v>6.777922816166824</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.0003128999999972848</v>
+        <v>0.0003519000000054007</v>
       </c>
     </row>
     <row r="74">
@@ -4276,13 +4276,13 @@
         <v>359.6814545009342</v>
       </c>
       <c r="F74" t="n">
-        <v>14.91923759231523</v>
+        <v>14.91923759231531</v>
       </c>
       <c r="G74" t="n">
-        <v>250.9526014821543</v>
+        <v>250.9526014821475</v>
       </c>
       <c r="H74" t="n">
-        <v>0.5702059128093881</v>
+        <v>0.570205912809407</v>
       </c>
       <c r="I74" t="n">
         <v>6.377065963047959</v>
@@ -4291,16 +4291,16 @@
         <v>50.40064281793606</v>
       </c>
       <c r="K74" t="n">
-        <v>2.089557154471018</v>
+        <v>2.089557154471031</v>
       </c>
       <c r="L74" t="n">
-        <v>12.08737777090923</v>
+        <v>12.08737777090924</v>
       </c>
       <c r="M74" t="n">
-        <v>3.850309411611563</v>
+        <v>3.850309411611541</v>
       </c>
       <c r="N74" t="n">
-        <v>7.918200349966727</v>
+        <v>7.918200349966888</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.000290100000000848</v>
+        <v>0.0002075000000019145</v>
       </c>
     </row>
     <row r="75">
@@ -4328,13 +4328,13 @@
         <v>359.42318694869</v>
       </c>
       <c r="F75" t="n">
-        <v>14.94229151276774</v>
+        <v>14.9422915127668</v>
       </c>
       <c r="G75" t="n">
-        <v>145.1819119549615</v>
+        <v>145.1819119549689</v>
       </c>
       <c r="H75" t="n">
-        <v>2.476393757922979</v>
+        <v>2.476393757922852</v>
       </c>
       <c r="I75" t="n">
         <v>19.35755665061183</v>
@@ -4343,16 +4343,16 @@
         <v>34.40684012736449</v>
       </c>
       <c r="K75" t="n">
-        <v>15.36684383875691</v>
+        <v>15.36684383875632</v>
       </c>
       <c r="L75" t="n">
-        <v>10.25204247459922</v>
+        <v>10.25204247459812</v>
       </c>
       <c r="M75" t="n">
-        <v>3.748402138519864</v>
+        <v>3.748402138520528</v>
       </c>
       <c r="N75" t="n">
-        <v>4.750979875933052</v>
+        <v>4.750979875933467</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.0002883000000011293</v>
+        <v>0.0001874999999955662</v>
       </c>
     </row>
     <row r="76">
@@ -4380,13 +4380,13 @@
         <v>359.3916545061923</v>
       </c>
       <c r="F76" t="n">
-        <v>14.00614769334817</v>
+        <v>14.00614769334877</v>
       </c>
       <c r="G76" t="n">
-        <v>23.76801407537306</v>
+        <v>23.76801407537448</v>
       </c>
       <c r="H76" t="n">
-        <v>1.609841985342571</v>
+        <v>1.609841985342962</v>
       </c>
       <c r="I76" t="n">
         <v>11.46063555869591</v>
@@ -4395,16 +4395,16 @@
         <v>50.37958060079622</v>
       </c>
       <c r="K76" t="n">
-        <v>7.791671815181816</v>
+        <v>7.791671815182198</v>
       </c>
       <c r="L76" t="n">
-        <v>13.27956205485928</v>
+        <v>13.27956205486031</v>
       </c>
       <c r="M76" t="n">
-        <v>3.403200597510449</v>
+        <v>3.403200597510018</v>
       </c>
       <c r="N76" t="n">
-        <v>4.636116658822241</v>
+        <v>4.636116658821994</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.0004908000000014567</v>
+        <v>0.0001879999999943038</v>
       </c>
     </row>
     <row r="77">
@@ -4432,13 +4432,13 @@
         <v>0.7095021339760793</v>
       </c>
       <c r="F77" t="n">
-        <v>20.07546914144522</v>
+        <v>20.07546914144468</v>
       </c>
       <c r="G77" t="n">
-        <v>186.2269760559034</v>
+        <v>186.2269760559039</v>
       </c>
       <c r="H77" t="n">
-        <v>9.720518808963789</v>
+        <v>9.72051880896371</v>
       </c>
       <c r="I77" t="n">
         <v>8.76635558354894</v>
@@ -4447,16 +4447,16 @@
         <v>36.83621895458627</v>
       </c>
       <c r="K77" t="n">
-        <v>1.503107719746717</v>
+        <v>1.503107719745966</v>
       </c>
       <c r="L77" t="n">
-        <v>5.863783819781471</v>
+        <v>5.863783819781033</v>
       </c>
       <c r="M77" t="n">
-        <v>5.086892853802609</v>
+        <v>5.086892853803289</v>
       </c>
       <c r="N77" t="n">
-        <v>9.221908690543092</v>
+        <v>9.221908690543255</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.0002971999999985542</v>
+        <v>0.0001873000000003344</v>
       </c>
     </row>
     <row r="78">
@@ -4484,13 +4484,13 @@
         <v>359.0596986892811</v>
       </c>
       <c r="F78" t="n">
-        <v>11.99137743657323</v>
+        <v>11.9913774365729</v>
       </c>
       <c r="G78" t="n">
-        <v>38.08506350591719</v>
+        <v>38.08506350591538</v>
       </c>
       <c r="H78" t="n">
-        <v>2.169847819831249</v>
+        <v>2.16984781983116</v>
       </c>
       <c r="I78" t="n">
         <v>16.84050940313982</v>
@@ -4499,16 +4499,16 @@
         <v>48.06403202229916</v>
       </c>
       <c r="K78" t="n">
-        <v>12.72640136997737</v>
+        <v>12.72640136997715</v>
       </c>
       <c r="L78" t="n">
-        <v>11.71054538197195</v>
+        <v>11.71054538197157</v>
       </c>
       <c r="M78" t="n">
-        <v>4.596115864256658</v>
+        <v>4.59611586425693</v>
       </c>
       <c r="N78" t="n">
-        <v>4.812848308539524</v>
+        <v>4.81284830853965</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.0002883999999987452</v>
+        <v>0.000294199999999023</v>
       </c>
     </row>
     <row r="79">
@@ -4536,13 +4536,13 @@
         <v>359.7755551479245</v>
       </c>
       <c r="F79" t="n">
-        <v>19.49785749232032</v>
+        <v>19.49785749231993</v>
       </c>
       <c r="G79" t="n">
-        <v>181.7270811651954</v>
+        <v>181.727081165196</v>
       </c>
       <c r="H79" t="n">
-        <v>6.852212361939656</v>
+        <v>6.852212361939613</v>
       </c>
       <c r="I79" t="n">
         <v>10.0027312132912</v>
@@ -4551,16 +4551,16 @@
         <v>25.33373033689035</v>
       </c>
       <c r="K79" t="n">
-        <v>5.579670908075907</v>
+        <v>5.57967090807564</v>
       </c>
       <c r="L79" t="n">
-        <v>8.703664218338833</v>
+        <v>8.703664218338499</v>
       </c>
       <c r="M79" t="n">
-        <v>3.015219954077647</v>
+        <v>3.01521995407785</v>
       </c>
       <c r="N79" t="n">
-        <v>3.506982552254504</v>
+        <v>3.506982552254613</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.0002922000000005198</v>
+        <v>0.000201300000000515</v>
       </c>
     </row>
     <row r="80">
@@ -4588,13 +4588,13 @@
         <v>359.8779538627754</v>
       </c>
       <c r="F80" t="n">
-        <v>17.87919461401931</v>
+        <v>17.87919461401946</v>
       </c>
       <c r="G80" t="n">
-        <v>197.2288755546059</v>
+        <v>197.2288755546043</v>
       </c>
       <c r="H80" t="n">
-        <v>3.810530285014234</v>
+        <v>3.810530285014647</v>
       </c>
       <c r="I80" t="n">
         <v>3.606923411926436</v>
@@ -4603,16 +4603,16 @@
         <v>50.73672563365681</v>
       </c>
       <c r="K80" t="n">
-        <v>358.8327356613945</v>
+        <v>358.8327356613943</v>
       </c>
       <c r="L80" t="n">
-        <v>10.89759443699568</v>
+        <v>10.89759443699533</v>
       </c>
       <c r="M80" t="n">
-        <v>3.785967566254245</v>
+        <v>3.785967566254356</v>
       </c>
       <c r="N80" t="n">
-        <v>8.435598316367141</v>
+        <v>8.435598316367127</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.0003087000000014939</v>
+        <v>0.0002427000000011503</v>
       </c>
     </row>
     <row r="81">
@@ -4640,13 +4640,13 @@
         <v>3.316358820770084</v>
       </c>
       <c r="F81" t="n">
-        <v>12.76849799884498</v>
+        <v>12.7684979988447</v>
       </c>
       <c r="G81" t="n">
-        <v>195.1579153225336</v>
+        <v>195.157915322534</v>
       </c>
       <c r="H81" t="n">
-        <v>9.076466175856494</v>
+        <v>9.076466175856146</v>
       </c>
       <c r="I81" t="n">
         <v>17.1232117211352</v>
@@ -4655,16 +4655,16 @@
         <v>39.09485972400436</v>
       </c>
       <c r="K81" t="n">
-        <v>247.8565461277425</v>
+        <v>247.8565461277492</v>
       </c>
       <c r="L81" t="n">
-        <v>1.013643833277422</v>
+        <v>1.013643833277349</v>
       </c>
       <c r="M81" t="n">
-        <v>2421.989605145007</v>
+        <v>2421.989605145074</v>
       </c>
       <c r="N81" t="n">
-        <v>36.69942195407438</v>
+        <v>36.6994219540726</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.000283700000000664</v>
+        <v>0.0002025000000003274</v>
       </c>
     </row>
     <row r="82">
@@ -4692,13 +4692,13 @@
         <v>358.1001470638519</v>
       </c>
       <c r="F82" t="n">
-        <v>9.203348020715199</v>
+        <v>9.203348020716126</v>
       </c>
       <c r="G82" t="n">
-        <v>62.27454096658018</v>
+        <v>62.27454096658238</v>
       </c>
       <c r="H82" t="n">
-        <v>0.9806514050937583</v>
+        <v>0.9806514050942388</v>
       </c>
       <c r="I82" t="n">
         <v>22.11552919085654</v>
@@ -4707,16 +4707,16 @@
         <v>39.33727404337365</v>
       </c>
       <c r="K82" t="n">
-        <v>14.97519394551665</v>
+        <v>14.97519394551809</v>
       </c>
       <c r="L82" t="n">
-        <v>7.380049788817661</v>
+        <v>7.380049788818908</v>
       </c>
       <c r="M82" t="n">
-        <v>10.47313780632383</v>
+        <v>10.47313780632091</v>
       </c>
       <c r="N82" t="n">
-        <v>6.215635431201936</v>
+        <v>6.215635431201368</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.000286400000000242</v>
+        <v>0.0001876999999979034</v>
       </c>
     </row>
     <row r="83">
@@ -4744,13 +4744,13 @@
         <v>1.359900342218693</v>
       </c>
       <c r="F83" t="n">
-        <v>18.55438647186441</v>
+        <v>18.55438647186436</v>
       </c>
       <c r="G83" t="n">
         <v>186.0543781764579</v>
       </c>
       <c r="H83" t="n">
-        <v>8.506958999805505</v>
+        <v>8.50695899980532</v>
       </c>
       <c r="I83" t="n">
         <v>12.10179104400886</v>
@@ -4759,16 +4759,16 @@
         <v>42.05119175911687</v>
       </c>
       <c r="K83" t="n">
-        <v>5.278137568857995</v>
+        <v>5.278137568858135</v>
       </c>
       <c r="L83" t="n">
-        <v>5.806005166129126</v>
+        <v>5.806005166129299</v>
       </c>
       <c r="M83" t="n">
-        <v>4.990457204702597</v>
+        <v>4.990457204702483</v>
       </c>
       <c r="N83" t="n">
-        <v>6.693990930056786</v>
+        <v>6.693990930056685</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.00063639999999765</v>
+        <v>0.0002437999999997942</v>
       </c>
     </row>
     <row r="84">
@@ -4796,13 +4796,13 @@
         <v>359.1593495972439</v>
       </c>
       <c r="F84" t="n">
-        <v>11.8733093369721</v>
+        <v>11.87330933697217</v>
       </c>
       <c r="G84" t="n">
-        <v>23.07867708840244</v>
+        <v>23.07867708840242</v>
       </c>
       <c r="H84" t="n">
-        <v>1.363485227661258</v>
+        <v>1.363485227661349</v>
       </c>
       <c r="I84" t="n">
         <v>13.43287767644303</v>
@@ -4811,16 +4811,16 @@
         <v>46.97805561868334</v>
       </c>
       <c r="K84" t="n">
-        <v>8.653061946854502</v>
+        <v>8.65306194685459</v>
       </c>
       <c r="L84" t="n">
-        <v>10.88479986100487</v>
+        <v>10.88479986100505</v>
       </c>
       <c r="M84" t="n">
-        <v>5.273369716363849</v>
+        <v>5.273369716363723</v>
       </c>
       <c r="N84" t="n">
-        <v>5.317559083515113</v>
+        <v>5.317559083515064</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.0003136000000019123</v>
+        <v>0.0002282000000022322</v>
       </c>
     </row>
     <row r="85">
@@ -4848,13 +4848,13 @@
         <v>359.150687113963</v>
       </c>
       <c r="F85" t="n">
-        <v>12.66899061283394</v>
+        <v>12.66899061283396</v>
       </c>
       <c r="G85" t="n">
-        <v>24.53121481732242</v>
+        <v>24.53121481732256</v>
       </c>
       <c r="H85" t="n">
-        <v>1.879373467307965</v>
+        <v>1.879373467307955</v>
       </c>
       <c r="I85" t="n">
         <v>13.12799389676822</v>
@@ -4869,7 +4869,7 @@
         <v>12.25410882586341</v>
       </c>
       <c r="M85" t="n">
-        <v>4.174738210081893</v>
+        <v>4.174738210081888</v>
       </c>
       <c r="N85" t="n">
         <v>4.894250753364354</v>
@@ -4880,7 +4880,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.000302999999998832</v>
+        <v>0.0001974000000046772</v>
       </c>
     </row>
     <row r="86">
@@ -4900,13 +4900,13 @@
         <v>0.1316122019755955</v>
       </c>
       <c r="F86" t="n">
-        <v>16.05246147584964</v>
+        <v>16.05246147584996</v>
       </c>
       <c r="G86" t="n">
-        <v>218.1240160775988</v>
+        <v>218.1240160775927</v>
       </c>
       <c r="H86" t="n">
-        <v>2.216024826507523</v>
+        <v>2.216024826507828</v>
       </c>
       <c r="I86" t="n">
         <v>3.043806361309816</v>
@@ -4918,13 +4918,13 @@
         <v>357.8070959403007</v>
       </c>
       <c r="L86" t="n">
-        <v>11.35241734690312</v>
+        <v>11.35241734690298</v>
       </c>
       <c r="M86" t="n">
-        <v>4.21189066838236</v>
+        <v>4.211890668382351</v>
       </c>
       <c r="N86" t="n">
-        <v>8.076819572038961</v>
+        <v>8.076819572039017</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.0002986000000007039</v>
+        <v>0.0001920999999995843</v>
       </c>
     </row>
     <row r="87">
@@ -4952,13 +4952,13 @@
         <v>359.8231492789211</v>
       </c>
       <c r="F87" t="n">
-        <v>15.2177493233496</v>
+        <v>15.21774932334947</v>
       </c>
       <c r="G87" t="n">
-        <v>155.2569099341038</v>
+        <v>155.2569099341044</v>
       </c>
       <c r="H87" t="n">
-        <v>2.735797273377141</v>
+        <v>2.73579727337711</v>
       </c>
       <c r="I87" t="n">
         <v>18.76061115182669</v>
@@ -4967,16 +4967,16 @@
         <v>35.21970397644842</v>
       </c>
       <c r="K87" t="n">
-        <v>14.55429172589592</v>
+        <v>14.55429172589581</v>
       </c>
       <c r="L87" t="n">
-        <v>9.938686797497372</v>
+        <v>9.938686797497246</v>
       </c>
       <c r="M87" t="n">
-        <v>3.571307233169891</v>
+        <v>3.571307233169975</v>
       </c>
       <c r="N87" t="n">
-        <v>5.086689683445389</v>
+        <v>5.08668968344544</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.0003041000000010285</v>
+        <v>0.0001894000000035589</v>
       </c>
     </row>
     <row r="88">
@@ -5004,13 +5004,13 @@
         <v>0.596285718967305</v>
       </c>
       <c r="F88" t="n">
-        <v>20.29584766799573</v>
+        <v>20.29584766799572</v>
       </c>
       <c r="G88" t="n">
         <v>187.2559879549524</v>
       </c>
       <c r="H88" t="n">
-        <v>8.793306656584182</v>
+        <v>8.793306656583983</v>
       </c>
       <c r="I88" t="n">
         <v>6.791947165725001</v>
@@ -5019,16 +5019,16 @@
         <v>42.97845363301155</v>
       </c>
       <c r="K88" t="n">
-        <v>0.3887834087228262</v>
+        <v>0.3887834087230297</v>
       </c>
       <c r="L88" t="n">
-        <v>7.211086857946427</v>
+        <v>7.211086857946656</v>
       </c>
       <c r="M88" t="n">
-        <v>4.302811361343602</v>
+        <v>4.302811361343449</v>
       </c>
       <c r="N88" t="n">
-        <v>8.26528890500146</v>
+        <v>8.265288905001311</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.0002925000000004729</v>
+        <v>0.0002440999999961946</v>
       </c>
     </row>
     <row r="89">
@@ -5056,13 +5056,13 @@
         <v>359.6276244791469</v>
       </c>
       <c r="F89" t="n">
-        <v>13.90949547961593</v>
+        <v>13.90949547961401</v>
       </c>
       <c r="G89" t="n">
-        <v>139.0396224862363</v>
+        <v>139.03962248624</v>
       </c>
       <c r="H89" t="n">
-        <v>3.482118225592575</v>
+        <v>3.482118225591742</v>
       </c>
       <c r="I89" t="n">
         <v>29.4243494329187</v>
@@ -5071,16 +5071,16 @@
         <v>33.52902134866883</v>
       </c>
       <c r="K89" t="n">
-        <v>25.14286205099491</v>
+        <v>25.14286205099365</v>
       </c>
       <c r="L89" t="n">
-        <v>8.989061332371699</v>
+        <v>8.989061332370124</v>
       </c>
       <c r="M89" t="n">
-        <v>3.999220010623961</v>
+        <v>3.999220010625296</v>
       </c>
       <c r="N89" t="n">
-        <v>4.710935102369177</v>
+        <v>4.710935102369806</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.0002871999999989328</v>
+        <v>0.0002691999999981931</v>
       </c>
     </row>
     <row r="90">
@@ -5108,13 +5108,13 @@
         <v>359.8931156958482</v>
       </c>
       <c r="F90" t="n">
-        <v>15.75150534302789</v>
+        <v>15.75150534302687</v>
       </c>
       <c r="G90" t="n">
-        <v>163.1568781953805</v>
+        <v>163.1568781953866</v>
       </c>
       <c r="H90" t="n">
-        <v>3.45083623771306</v>
+        <v>3.450836237713079</v>
       </c>
       <c r="I90" t="n">
         <v>18.57224489984314</v>
@@ -5123,16 +5123,16 @@
         <v>34.2946546952799</v>
       </c>
       <c r="K90" t="n">
-        <v>14.31808970942408</v>
+        <v>14.31808970942342</v>
       </c>
       <c r="L90" t="n">
-        <v>9.46578299638796</v>
+        <v>9.465782996386725</v>
       </c>
       <c r="M90" t="n">
-        <v>3.666583106120092</v>
+        <v>3.666583106120828</v>
       </c>
       <c r="N90" t="n">
-        <v>4.985611441368816</v>
+        <v>4.985611441369185</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.0003400999999989551</v>
+        <v>0.0002171000000004142</v>
       </c>
     </row>
     <row r="91">
@@ -5160,13 +5160,13 @@
         <v>1.693730026547098</v>
       </c>
       <c r="F91" t="n">
-        <v>18.66328023907786</v>
+        <v>18.66328023907847</v>
       </c>
       <c r="G91" t="n">
-        <v>187.2204372021834</v>
+        <v>187.2204372021828</v>
       </c>
       <c r="H91" t="n">
-        <v>10.05731983336086</v>
+        <v>10.05731983336113</v>
       </c>
       <c r="I91" t="n">
         <v>12.74316145486036</v>
@@ -5175,16 +5175,16 @@
         <v>38.33487342784704</v>
       </c>
       <c r="K91" t="n">
-        <v>2.889215744350516</v>
+        <v>2.889215744351559</v>
       </c>
       <c r="L91" t="n">
-        <v>4.070860883567149</v>
+        <v>4.070860883567431</v>
       </c>
       <c r="M91" t="n">
-        <v>6.87729570259883</v>
+        <v>6.877295702597776</v>
       </c>
       <c r="N91" t="n">
-        <v>8.026426883010458</v>
+        <v>8.026426883010286</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.0002837999999982799</v>
+        <v>0.0001917000000020153</v>
       </c>
     </row>
     <row r="92">
@@ -5212,13 +5212,13 @@
         <v>0.2244866681993254</v>
       </c>
       <c r="F92" t="n">
-        <v>18.91617061006506</v>
+        <v>18.91617061006484</v>
       </c>
       <c r="G92" t="n">
-        <v>190.6535920759617</v>
+        <v>190.6535920759619</v>
       </c>
       <c r="H92" t="n">
-        <v>5.625959872375426</v>
+        <v>5.625959872375523</v>
       </c>
       <c r="I92" t="n">
         <v>5.21318424796729</v>
@@ -5227,16 +5227,16 @@
         <v>42.76553142273538</v>
       </c>
       <c r="K92" t="n">
-        <v>359.9791217858843</v>
+        <v>359.9791217858841</v>
       </c>
       <c r="L92" t="n">
-        <v>9.66488229490502</v>
+        <v>9.664882294904695</v>
       </c>
       <c r="M92" t="n">
-        <v>3.587065025444076</v>
+        <v>3.587065025444268</v>
       </c>
       <c r="N92" t="n">
-        <v>7.051064252860037</v>
+        <v>7.051064252860132</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.000282699999999636</v>
+        <v>0.0001895000000047276</v>
       </c>
     </row>
     <row r="93">
@@ -5264,13 +5264,13 @@
         <v>0.6061210177347658</v>
       </c>
       <c r="F93" t="n">
-        <v>19.73644322537993</v>
+        <v>19.73644322537967</v>
       </c>
       <c r="G93" t="n">
-        <v>186.467402589645</v>
+        <v>186.4674025896452</v>
       </c>
       <c r="H93" t="n">
-        <v>7.097732159093756</v>
+        <v>7.097732159093454</v>
       </c>
       <c r="I93" t="n">
         <v>7.863442946019621</v>
@@ -5279,16 +5279,16 @@
         <v>44.53239056119353</v>
       </c>
       <c r="K93" t="n">
-        <v>2.77705620275613</v>
+        <v>2.777056202756117</v>
       </c>
       <c r="L93" t="n">
-        <v>8.66607819276075</v>
+        <v>8.666078192760851</v>
       </c>
       <c r="M93" t="n">
-        <v>3.334027385680202</v>
+        <v>3.334027385680228</v>
       </c>
       <c r="N93" t="n">
-        <v>6.424881816351774</v>
+        <v>6.424881816351674</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.0002818999999973926</v>
+        <v>0.0002381999999983009</v>
       </c>
     </row>
     <row r="94">
@@ -5316,13 +5316,13 @@
         <v>359.7697007582177</v>
       </c>
       <c r="F94" t="n">
-        <v>19.62105190572638</v>
+        <v>19.62105190572637</v>
       </c>
       <c r="G94" t="n">
-        <v>176.3375460242276</v>
+        <v>176.3375460242277</v>
       </c>
       <c r="H94" t="n">
-        <v>7.371388155581233</v>
+        <v>7.371388155581243</v>
       </c>
       <c r="I94" t="n">
         <v>15.35104641020007</v>
@@ -5331,16 +5331,16 @@
         <v>24.24394169017284</v>
       </c>
       <c r="K94" t="n">
-        <v>11.45302192094373</v>
+        <v>11.45302192094372</v>
       </c>
       <c r="L94" t="n">
-        <v>8.343059028492183</v>
+        <v>8.343059028492155</v>
       </c>
       <c r="M94" t="n">
-        <v>2.596607330399895</v>
+        <v>2.596607330399904</v>
       </c>
       <c r="N94" t="n">
-        <v>3.510942821737241</v>
+        <v>3.510942821737248</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0.0003187000000011153</v>
+        <v>0.0002005999999994401</v>
       </c>
     </row>
     <row r="95">
@@ -5368,13 +5368,13 @@
         <v>358.3698019196562</v>
       </c>
       <c r="F95" t="n">
-        <v>11.31482856495625</v>
+        <v>11.31482856495788</v>
       </c>
       <c r="G95" t="n">
-        <v>88.71504847643271</v>
+        <v>88.71504847642483</v>
       </c>
       <c r="H95" t="n">
-        <v>1.485440112389826</v>
+        <v>1.485440112390552</v>
       </c>
       <c r="I95" t="n">
         <v>22.21315077475493</v>
@@ -5383,16 +5383,16 @@
         <v>35.75139630592476</v>
       </c>
       <c r="K95" t="n">
-        <v>16.76233678514533</v>
+        <v>16.76233678514684</v>
       </c>
       <c r="L95" t="n">
-        <v>9.121435601459453</v>
+        <v>9.121435601461501</v>
       </c>
       <c r="M95" t="n">
-        <v>6.314069936741101</v>
+        <v>6.314069936738713</v>
       </c>
       <c r="N95" t="n">
-        <v>5.273857547663462</v>
+        <v>5.27385754766302</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0.0003026999999988789</v>
+        <v>0.000195200000000284</v>
       </c>
     </row>
     <row r="96">
@@ -5420,13 +5420,13 @@
         <v>359.2565467844867</v>
       </c>
       <c r="F96" t="n">
-        <v>14.73821947143489</v>
+        <v>14.73821947143468</v>
       </c>
       <c r="G96" t="n">
-        <v>150.6048896511922</v>
+        <v>150.6048896511895</v>
       </c>
       <c r="H96" t="n">
-        <v>2.69584283293253</v>
+        <v>2.695842832932307</v>
       </c>
       <c r="I96" t="n">
         <v>19.90993072089658</v>
@@ -5435,16 +5435,16 @@
         <v>31.41112353494288</v>
       </c>
       <c r="K96" t="n">
-        <v>15.42768176711708</v>
+        <v>15.42768176711695</v>
       </c>
       <c r="L96" t="n">
-        <v>9.649805685370955</v>
+        <v>9.649805685371049</v>
       </c>
       <c r="M96" t="n">
-        <v>3.904656479340909</v>
+        <v>3.904656479340963</v>
       </c>
       <c r="N96" t="n">
-        <v>4.647919024820298</v>
+        <v>4.647919024820308</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0.0003728000000009501</v>
+        <v>0.0002043000000000461</v>
       </c>
     </row>
     <row r="97">
@@ -5472,13 +5472,13 @@
         <v>0.6642888995524697</v>
       </c>
       <c r="F97" t="n">
-        <v>20.45635874087562</v>
+        <v>20.45635874087538</v>
       </c>
       <c r="G97" t="n">
-        <v>186.9595390804369</v>
+        <v>186.9595390804371</v>
       </c>
       <c r="H97" t="n">
-        <v>8.535821955439824</v>
+        <v>8.535821955439641</v>
       </c>
       <c r="I97" t="n">
         <v>7.230991953515353</v>
@@ -5487,16 +5487,16 @@
         <v>42.49750700264286</v>
       </c>
       <c r="K97" t="n">
-        <v>1.243356126364213</v>
+        <v>1.243356126364124</v>
       </c>
       <c r="L97" t="n">
-        <v>7.672912310964037</v>
+        <v>7.672912310964024</v>
       </c>
       <c r="M97" t="n">
-        <v>3.920160710391419</v>
+        <v>3.920160710391498</v>
       </c>
       <c r="N97" t="n">
-        <v>8.042304728740662</v>
+        <v>8.042304728740602</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0.0003267999999998494</v>
+        <v>0.0001889000000048213</v>
       </c>
     </row>
     <row r="98">
@@ -5524,13 +5524,13 @@
         <v>359.930152225234</v>
       </c>
       <c r="F98" t="n">
-        <v>14.46002258424192</v>
+        <v>14.46002258424112</v>
       </c>
       <c r="G98" t="n">
-        <v>69.04069270412506</v>
+        <v>69.04069270413834</v>
       </c>
       <c r="H98" t="n">
-        <v>0.725335680666145</v>
+        <v>0.7253356806658193</v>
       </c>
       <c r="I98" t="n">
         <v>12.95227042657602</v>
@@ -5539,16 +5539,16 @@
         <v>51.74105893626461</v>
       </c>
       <c r="K98" t="n">
-        <v>9.186030485537678</v>
+        <v>9.18603048553717</v>
       </c>
       <c r="L98" t="n">
-        <v>12.31290699695346</v>
+        <v>12.3129069969523</v>
       </c>
       <c r="M98" t="n">
-        <v>3.385350956835912</v>
+        <v>3.385350956836443</v>
       </c>
       <c r="N98" t="n">
-        <v>5.341208964609298</v>
+        <v>5.341208964609853</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0.0002983000000007507</v>
+        <v>0.0002397999999956824</v>
       </c>
     </row>
     <row r="99">
@@ -5576,13 +5576,13 @@
         <v>1.751187751292006</v>
       </c>
       <c r="F99" t="n">
-        <v>17.0156772802361</v>
+        <v>17.01567728023466</v>
       </c>
       <c r="G99" t="n">
-        <v>183.8618651985896</v>
+        <v>183.8618651985912</v>
       </c>
       <c r="H99" t="n">
-        <v>9.274452228000154</v>
+        <v>9.274452227999356</v>
       </c>
       <c r="I99" t="n">
         <v>23.90850916660207</v>
@@ -5591,16 +5591,16 @@
         <v>24.13895389620888</v>
       </c>
       <c r="K99" t="n">
-        <v>15.97178265649554</v>
+        <v>15.97178265649319</v>
       </c>
       <c r="L99" t="n">
-        <v>3.419289911502319</v>
+        <v>3.419289911501799</v>
       </c>
       <c r="M99" t="n">
-        <v>4.900653024771652</v>
+        <v>4.900653024773583</v>
       </c>
       <c r="N99" t="n">
-        <v>5.161616567622364</v>
+        <v>5.161616567623165</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0.0002926999999992574</v>
+        <v>0.0002068000000008396</v>
       </c>
     </row>
     <row r="100">
@@ -5628,13 +5628,13 @@
         <v>359.5262829187342</v>
       </c>
       <c r="F100" t="n">
-        <v>15.13453249229677</v>
+        <v>15.13453249229568</v>
       </c>
       <c r="G100" t="n">
-        <v>163.7971193782859</v>
+        <v>163.7971193782912</v>
       </c>
       <c r="H100" t="n">
-        <v>3.328838927466565</v>
+        <v>3.328838927466435</v>
       </c>
       <c r="I100" t="n">
         <v>18.60137800648538</v>
@@ -5643,16 +5643,16 @@
         <v>31.16710803662699</v>
       </c>
       <c r="K100" t="n">
-        <v>13.97130840015253</v>
+        <v>13.97130840015176</v>
       </c>
       <c r="L100" t="n">
-        <v>8.946376041377867</v>
+        <v>8.946376041376755</v>
       </c>
       <c r="M100" t="n">
-        <v>3.923568598165404</v>
+        <v>3.923568598166224</v>
       </c>
       <c r="N100" t="n">
-        <v>4.79684958257954</v>
+        <v>4.796849582579957</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0.0003109999999999502</v>
+        <v>0.0001914000000056149</v>
       </c>
     </row>
     <row r="101">
@@ -5680,13 +5680,13 @@
         <v>0.1423588427019467</v>
       </c>
       <c r="F101" t="n">
-        <v>17.14771441976676</v>
+        <v>17.14771441976715</v>
       </c>
       <c r="G101" t="n">
-        <v>168.8000065532676</v>
+        <v>168.8000065532653</v>
       </c>
       <c r="H101" t="n">
-        <v>4.5744984695215</v>
+        <v>4.57449846952137</v>
       </c>
       <c r="I101" t="n">
         <v>17.85727084796145</v>
@@ -5695,16 +5695,16 @@
         <v>33.52305968980325</v>
       </c>
       <c r="K101" t="n">
-        <v>13.99306383430262</v>
+        <v>13.99306383430287</v>
       </c>
       <c r="L101" t="n">
-        <v>9.426166909594441</v>
+        <v>9.426166909595047</v>
       </c>
       <c r="M101" t="n">
-        <v>3.003975767968265</v>
+        <v>3.003975767968011</v>
       </c>
       <c r="N101" t="n">
-        <v>4.567605588820914</v>
+        <v>4.567605588820799</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>0.0003088999999967257</v>
+        <v>0.000191499999999678</v>
       </c>
     </row>
   </sheetData>
